--- a/DOC/単体テスト/EMSM_単体テスト仕様書-雇用保険機能.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書-雇用保険機能.xlsx
@@ -16,6 +16,7 @@
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="6" r:id="rId2"/>
     <sheet name="テストケース" sheetId="4" r:id="rId3"/>
+    <sheet name="テストデータ" sheetId="8" r:id="rId13"/>
     <sheet name="カバレッジ参照" sheetId="7" r:id="rId4"/>
   </sheets>
   <externalReferences>
@@ -36,6 +37,7 @@
     <definedName name="__a1">#REF!</definedName>
     <definedName name="_a1">#REF!</definedName>
     <definedName name="condcoverage01.gif" localSheetId="3">'カバレッジ参照'!#REF!</definedName>
+    <definedName name="condcoverage01.gif" localSheetId="4">'カバレッジ参照'!#REF!</definedName>
     <definedName name="DB属性">[1]CODE!$H$3:$H$13</definedName>
     <definedName name="HH" localSheetId="0" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="HH" hidden="true">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
@@ -1073,7 +1075,7 @@
     <t>①年度リストから更新ボダンを押すと雇用保険ID値リストが表示</t>
   </si>
   <si>
-    <t xml:space="preserve">①雇用保険ID値リストの更新画面が表示
+    <t xml:space="preserve">①雇用保険ID値リストの更新画面が表示
 </t>
   </si>
   <si>
@@ -1086,40 +1088,40 @@
     <t>対象年度</t>
   </si>
   <si>
-    <t xml:space="preserve">①更新の時対象年度が空白の場合
+    <t xml:space="preserve">①更新の時対象年度が空白の場合
 </t>
   </si>
   <si>
-    <t xml:space="preserve">①“年度を入力してください。“のエラーメッセージが出ます。
+    <t xml:space="preserve">①“年度を入力してください。“のエラーメッセージが出ます。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">雇用保険労働者負担料率‰
+    <t xml:space="preserve">雇用保険労働者負担料率‰
 </t>
   </si>
   <si>
     <t>①更新の時雇用保険労働者負担料率‰が空白の場合</t>
   </si>
   <si>
-    <t xml:space="preserve">①"雇用保険労働者負担料率‰を入力してください"
+    <t xml:space="preserve">①"雇用保険労働者負担料率‰を入力してください"
 </t>
   </si>
   <si>
-    <t>①"雇用保険労働者負担料率‰を入力してください"
+    <t>①"雇用保険労働者負担料率‰を入力してください"
 ②"雇用保険労働者負担料率‰に小数点2位までの数字のみを入力してください。"</t>
   </si>
   <si>
-    <t>①"雇用保険労働者負担料率‰を入力してください"
+    <t>①"雇用保険労働者負担料率‰を入力してください"
 ②"雇用保険労働者負担料率‰に小数点2位までの数字のみを入力してください。"③"雇用保険労働者負担料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
   </si>
   <si>
-    <t xml:space="preserve">①"雇用保険労働者負担料率‰を入力してください"
-②"雇用保険労働者負担料率‰に小数点2位までの数字のみを入力してください。"③"雇用保険労働者負担料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。
+    <t xml:space="preserve">①"雇用保険労働者負担料率‰を入力してください"
+②"雇用保険労働者負担料率‰に小数点2位までの数字のみを入力してください。"③"雇用保険労働者負担料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">①"雇用保険労働者負担料率‰を入力してください"
-②"雇用保険労働者負担料率‰に小数点2位までの数字のみを入力してくだい。"③"雇用保険労働者負担料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。
+    <t xml:space="preserve">①"雇用保険労働者負担料率‰を入力してください"
+②"雇用保険労働者負担料率‰に小数点2位までの数字のみを入力してくだい。"③"雇用保険労働者負担料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。
 </t>
   </si>
   <si>
@@ -1129,66 +1131,66 @@
     <t>７</t>
   </si>
   <si>
-    <t xml:space="preserve">雇用保険料率‰
+    <t xml:space="preserve">雇用保険料率‰
 </t>
   </si>
   <si>
     <t>①更新の時雇用保険料率‰が空白の場合</t>
   </si>
   <si>
-    <t>①"雇用保険料率‰を入力してください"
+    <t>①"雇用保険料率‰を入力してください"
 ②"雇用保険料率‰に小数点2位までの数字のみを入力してください。"③"雇用保険料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
   </si>
   <si>
     <t>９</t>
   </si>
   <si>
-    <t xml:space="preserve">労災保険料率(全額事業主)‰
+    <t xml:space="preserve">労災保険料率(全額事業主)‰
 </t>
   </si>
   <si>
     <t>①更新の時労災保険料率(全額事業主)‰が空白の場合</t>
   </si>
   <si>
-    <t>①"労災保険料率(全額事業主)‰を入力してください"
+    <t>①"労災保険料率(全額事業主)‰を入力してください"
 ②"労災保険料率(全額事業主)‰に小数点2位までの数字のみを入力してください。"③"労災保険料率(全額事業主)‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
   </si>
   <si>
-    <t xml:space="preserve">労働保険料率‰
+    <t xml:space="preserve">労働保険料率‰
 </t>
   </si>
   <si>
     <t>①更新の時労働保険料率‰が空白の場合</t>
   </si>
   <si>
-    <t>①"労働保険料率‰を入力してください"
+    <t>①"労働保険料率‰を入力してください"
 ②"労働保険料率‰に小数点2位までの数字のみを入力してください。"③"労働保険料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
   </si>
   <si>
-    <t xml:space="preserve">一般拠出金料率(全額事業主)‰
+    <t xml:space="preserve">一般拠出金料率(全額事業主)‰
 </t>
   </si>
   <si>
-    <t>①更新の時一般拠出金料率(全額事業主)‰
+    <t>①更新の時一般拠出金料率(全額事業主)‰
 が空白の場合</t>
   </si>
   <si>
-    <t>①"一般拠出金料率(全額事業主)‰を入力してください"
+    <t>①"一般拠出金料率(全額事業主)‰を入力してください"
 ②"一般拠出金料率(全額事業主)‰に小数点2位までの数字のみを入力してください。"③"一般拠出金料率(全額事業主)‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
   </si>
   <si>
-    <t xml:space="preserve">新規追加
+    <t xml:space="preserve">新規追加
 </t>
   </si>
   <si>
     <t>①新規追加ボダン押すとemplyinsrateIDを採番して新規追加の画面が表示します。</t>
   </si>
   <si>
-    <t xml:space="preserve">①雇用保険IDを採番して画面に渡された新規画面表示
+    <t xml:space="preserve">①雇用保険IDを採番して画面に渡された新規画面表示
 </t>
   </si>
   <si>
-    <t>①更新の時対象年度が空白の場合
+    <t>①更新の時対象年度が空白の場合
 ②登録ボダン押すの場合</t>
   </si>
   <si>
@@ -1198,48 +1200,48 @@
     <t>①更新の時雇用保険労働者負担料率‰が空白の場合　　　　　　　　　　　　</t>
   </si>
   <si>
-    <t>①更新の時雇用保険労働者負担料率‰が空白の場合　　　　　　　　　　　　
+    <t>①更新の時雇用保険労働者負担料率‰が空白の場合　　　　　　　　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t>①更新の時労災保険料率(全額事業主)‰が空白の場合　　　　　　　　　　　　
+    <t>①更新の時労災保険料率(全額事業主)‰が空白の場合　　　　　　　　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t>①更新の時雇用保険料率‰が空白の場合　　　　　　　　　　　　
+    <t>①更新の時雇用保険料率‰が空白の場合　　　　　　　　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t>①更新の時労働保険料率‰が空白の場合　　　　　　　　　　　　
+    <t>①更新の時労働保険料率‰が空白の場合　　　　　　　　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t xml:space="preserve">①新規追加の時対象年度が空白の場合　　　　　　　　　　
-②登録ボダン押すの場合
+    <t xml:space="preserve">①新規追加の時対象年度が空白の場合　　　　　　　　　　
+②登録ボダン押すの場合
 </t>
   </si>
   <si>
-    <t>①新規追加の時雇用保険労働者負担料率‰が空白の場合　　　　　　　　　
+    <t>①新規追加の時雇用保険労働者負担料率‰が空白の場合　　　　　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t>①新規追加の時労災保険料率(全額事業主)‰が空白の場合　　　　　　　
+    <t>①新規追加の時労災保険料率(全額事業主)‰が空白の場合　　　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t>①新規追加の時雇用保険料率‰が空白の場合　　　　　　　
+    <t>①新規追加の時雇用保険料率‰が空白の場合　　　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t>①新規追加の時雇用保険料率‰が空白の場合　　　　　　
+    <t>①新規追加の時雇用保険料率‰が空白の場合　　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t>①新規追加の時労働保険料率‰が空白の場合　　　　　
+    <t>①新規追加の時労働保険料率‰が空白の場合　　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
-    <t>①新規追加の時一般拠出金料率(全額事業主)‰が空白の場合　　　　
+    <t>①新規追加の時一般拠出金料率(全額事業主)‰が空白の場合　　　　
 ②登録ボダン押すの場合</t>
   </si>
   <si>
@@ -1253,6 +1255,71 @@
   </si>
   <si>
     <t>EmplyinsrateInfoFormBeanのgetInsertFlg</t>
+  </si>
+  <si>
+    <t>①メールアカウントとパスワードを入力(e001@it-softtech.com)してログインボダン押す
+②雇用保険リスト画面表示</t>
+  </si>
+  <si>
+    <t>①年度により雇用保険リスト</t>
+  </si>
+  <si>
+    <t>①年度により雇用保険リスト　　　
+②検索ボダン押すの場合</t>
+  </si>
+  <si>
+    <t>雇用保険率テーブル:</t>
+  </si>
+  <si>
+    <t>m_emplyinsrate</t>
+  </si>
+  <si>
+    <t>emplyinsrateID</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>laborBurdenRate</t>
+  </si>
+  <si>
+    <t>employerBurdenRate</t>
+  </si>
+  <si>
+    <t>employmentInsuranceRate</t>
+  </si>
+  <si>
+    <t>industrialAccidentInsuranceRate</t>
+  </si>
+  <si>
+    <t>laborInsuranceRate</t>
+  </si>
+  <si>
+    <t>contributionRate</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>insertDate</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>NO.1</t>
+  </si>
+  <si>
+    <t>EmplyinsrateInfoServiceのgetOldYears</t>
+  </si>
+  <si>
+    <t>雇用保険率テーブル</t>
+  </si>
+  <si>
+    <t>E002</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,8 +1592,118 @@
       <charset val="134"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <color rgb="FF002060"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF002060"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF002060"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft Himalaya"/>
+      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft Himalaya"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Microsoft Himalaya"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Microsoft Himalaya"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft Himalaya"/>
+      <charset val="134"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft Himalaya"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft Himalaya"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft Himalaya"/>
+      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF002060"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,8 +1716,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E4BC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="89">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -2226,6 +2413,118 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2242,7 +2541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="668">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3836,6 +4135,419 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="43" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="3" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="44" applyFont="1" fillId="4" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="45" applyFont="1" fillId="4" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="47" applyFont="1" fillId="4" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="4" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="4" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="49" applyFont="1" fillId="4" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="48" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="52" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="53" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="51" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="54" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="53" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="55" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="56" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="50" applyFont="1" fillId="0" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="57" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="4" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="4" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="4" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="101" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="4" applyFill="1" borderId="102" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="4" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="4" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4991,8 +5703,8 @@
   <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A7" zoomScale="88" zoomScaleNormal="80" workbookViewId="0" tabSelected="1">
-      <pane activePane="bottomLeft" ySplit="2" topLeftCell="A33" state="frozen"/>
-      <selection activeCell="AK47" sqref="AK47" activeCellId="0" pane="bottomLeft"/>
+      <pane activePane="bottomLeft" ySplit="2" topLeftCell="A36" state="frozen"/>
+      <selection activeCell="AN14" sqref="AN14:AR14" activeCellId="0" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5036,11 +5748,11 @@
     <col min="37" max="37" width="2.125" style="220" customWidth="1"/>
     <col min="38" max="38" width="2.125" style="220" customWidth="1"/>
     <col min="39" max="39" width="2.125" style="220" customWidth="1"/>
-    <col min="40" max="40" width="2.125" style="220" customWidth="1"/>
-    <col min="41" max="41" width="2.125" style="220" customWidth="1"/>
-    <col min="42" max="42" width="2.125" style="220" customWidth="1"/>
-    <col min="43" max="43" width="2.125" style="220" customWidth="1"/>
-    <col min="44" max="44" width="6.75" style="220" customWidth="1"/>
+    <col min="40" max="40" width="11.375" style="220" customWidth="1"/>
+    <col min="41" max="41" width="11.375" style="220" customWidth="1"/>
+    <col min="42" max="42" width="11.375" style="220" customWidth="1"/>
+    <col min="43" max="43" width="11.375" style="220" customWidth="1"/>
+    <col min="44" max="44" width="11.375" style="220" customWidth="1"/>
     <col min="45" max="45" width="2.125" style="220" customWidth="1"/>
     <col min="46" max="46" width="2.125" style="220" customWidth="1"/>
     <col min="47" max="47" width="2.125" style="220" customWidth="1"/>
@@ -5294,7 +6006,7 @@
       <c r="I4" s="151"/>
       <c r="J4" s="151"/>
       <c r="K4" s="150" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="L4" s="151"/>
       <c r="M4" s="151"/>
@@ -5312,7 +6024,7 @@
       <c r="W4" s="230"/>
       <c r="X4" s="231"/>
       <c r="Y4" s="156" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="Z4" s="163"/>
       <c r="AA4" s="163"/>
@@ -5742,7 +6454,7 @@
       <c r="AQ9" s="279"/>
       <c r="AR9" s="394"/>
       <c r="AS9" s="279" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="AT9" s="279"/>
       <c r="AU9" s="279"/>
@@ -5843,7 +6555,7 @@
       <c r="AL10" s="264"/>
       <c r="AM10" s="265"/>
       <c r="AN10" s="433" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="AO10" s="434"/>
       <c r="AP10" s="434"/>
@@ -5898,7 +6610,7 @@
       <c r="CE10" s="238"/>
       <c r="CF10" s="239"/>
     </row>
-    <row r="11" customHeight="1" ht="87" customFormat="1" s="220">
+    <row r="11" customHeight="1" ht="87" customFormat="1" s="503">
       <c r="A11" s="264">
         <v>3</v>
       </c>
@@ -5945,11 +6657,11 @@
       <c r="AH11" s="237"/>
       <c r="AI11" s="238"/>
       <c r="AJ11" s="239"/>
-      <c r="AK11" s="264" t="s">
+      <c r="AK11" s="509" t="s">
         <v>40</v>
       </c>
-      <c r="AL11" s="264"/>
-      <c r="AM11" s="265"/>
+      <c r="AL11" s="509"/>
+      <c r="AM11" s="510"/>
       <c r="AN11" s="279" t="s">
         <v>94</v>
       </c>
@@ -5957,8 +6669,8 @@
       <c r="AP11" s="279"/>
       <c r="AQ11" s="279"/>
       <c r="AR11" s="280"/>
-      <c r="AS11" s="264" t="s">
-        <v>97</v>
+      <c r="AS11" s="279" t="s">
+        <v>156</v>
       </c>
       <c r="AT11" s="264"/>
       <c r="AU11" s="264"/>
@@ -5974,7 +6686,7 @@
       <c r="BE11" s="264"/>
       <c r="BF11" s="265"/>
       <c r="BG11" s="264" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BH11" s="264"/>
       <c r="BI11" s="264"/>
@@ -6005,14 +6717,27 @@
       <c r="CD11" s="238"/>
       <c r="CE11" s="238"/>
       <c r="CF11" s="239"/>
-    </row>
-    <row r="12" customHeight="1" ht="87" customFormat="1" s="503">
+      <c r="CG11" s="220"/>
+      <c r="CH11" s="220"/>
+      <c r="CI11" s="220"/>
+      <c r="CJ11" s="220"/>
+      <c r="CK11" s="220"/>
+      <c r="CL11" s="220"/>
+      <c r="CM11" s="220"/>
+      <c r="CN11" s="220"/>
+      <c r="CO11" s="220"/>
+      <c r="CP11" s="220"/>
+      <c r="CQ11" s="220"/>
+      <c r="CR11" s="220"/>
+      <c r="CS11" s="220"/>
+    </row>
+    <row r="12" customHeight="1" ht="87" customFormat="1" s="220">
       <c r="A12" s="264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="265"/>
       <c r="C12" s="264" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D12" s="264"/>
       <c r="E12" s="264"/>
@@ -6036,8 +6761,10 @@
         <v>69</v>
       </c>
       <c r="U12" s="258"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="239"/>
+      <c r="V12" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12" s="258"/>
       <c r="X12" s="237"/>
       <c r="Y12" s="239"/>
       <c r="Z12" s="237"/>
@@ -6052,37 +6779,37 @@
       <c r="AG12" s="239"/>
       <c r="AH12" s="237"/>
       <c r="AI12" s="238"/>
-      <c r="AJ12" s="239"/>
-      <c r="AK12" s="509" t="s">
+      <c r="AJ12" s="511"/>
+      <c r="AK12" s="512" t="s">
         <v>40</v>
       </c>
-      <c r="AL12" s="509"/>
-      <c r="AM12" s="510"/>
+      <c r="AL12" s="513"/>
+      <c r="AM12" s="514"/>
       <c r="AN12" s="279" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AO12" s="279"/>
       <c r="AP12" s="279"/>
       <c r="AQ12" s="279"/>
       <c r="AR12" s="280"/>
-      <c r="AS12" s="264" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT12" s="264"/>
-      <c r="AU12" s="264"/>
-      <c r="AV12" s="264"/>
-      <c r="AW12" s="264"/>
-      <c r="AX12" s="264"/>
-      <c r="AY12" s="264"/>
-      <c r="AZ12" s="264"/>
-      <c r="BA12" s="264"/>
-      <c r="BB12" s="264"/>
-      <c r="BC12" s="264"/>
-      <c r="BD12" s="264"/>
-      <c r="BE12" s="264"/>
-      <c r="BF12" s="265"/>
+      <c r="AS12" s="279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT12" s="279"/>
+      <c r="AU12" s="279"/>
+      <c r="AV12" s="279"/>
+      <c r="AW12" s="279"/>
+      <c r="AX12" s="279"/>
+      <c r="AY12" s="279"/>
+      <c r="AZ12" s="279"/>
+      <c r="BA12" s="279"/>
+      <c r="BB12" s="279"/>
+      <c r="BC12" s="279"/>
+      <c r="BD12" s="279"/>
+      <c r="BE12" s="279"/>
+      <c r="BF12" s="280"/>
       <c r="BG12" s="264" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="BH12" s="264"/>
       <c r="BI12" s="264"/>
@@ -6113,27 +6840,14 @@
       <c r="CD12" s="238"/>
       <c r="CE12" s="238"/>
       <c r="CF12" s="239"/>
-      <c r="CG12" s="220"/>
-      <c r="CH12" s="220"/>
-      <c r="CI12" s="220"/>
-      <c r="CJ12" s="220"/>
-      <c r="CK12" s="220"/>
-      <c r="CL12" s="220"/>
-      <c r="CM12" s="220"/>
-      <c r="CN12" s="220"/>
-      <c r="CO12" s="220"/>
-      <c r="CP12" s="220"/>
-      <c r="CQ12" s="220"/>
-      <c r="CR12" s="220"/>
-      <c r="CS12" s="220"/>
-    </row>
-    <row r="13" customHeight="1" ht="87" customFormat="1" s="220">
+    </row>
+    <row r="13" customHeight="1" ht="87" customFormat="1" s="503">
       <c r="A13" s="264">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="265"/>
       <c r="C13" s="264" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D13" s="264"/>
       <c r="E13" s="264"/>
@@ -6157,10 +6871,8 @@
         <v>69</v>
       </c>
       <c r="U13" s="258"/>
-      <c r="V13" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="W13" s="258"/>
+      <c r="V13" s="237"/>
+      <c r="W13" s="239"/>
       <c r="X13" s="237"/>
       <c r="Y13" s="239"/>
       <c r="Z13" s="237"/>
@@ -6176,20 +6888,20 @@
       <c r="AH13" s="237"/>
       <c r="AI13" s="238"/>
       <c r="AJ13" s="511"/>
-      <c r="AK13" s="512" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL13" s="513"/>
-      <c r="AM13" s="514"/>
-      <c r="AN13" s="279" t="s">
-        <v>151</v>
+      <c r="AK13" s="515" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL13" s="516"/>
+      <c r="AM13" s="517"/>
+      <c r="AN13" s="471" t="s">
+        <v>152</v>
       </c>
       <c r="AO13" s="279"/>
       <c r="AP13" s="279"/>
       <c r="AQ13" s="279"/>
       <c r="AR13" s="280"/>
       <c r="AS13" s="279" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="AT13" s="279"/>
       <c r="AU13" s="279"/>
@@ -6204,23 +6916,23 @@
       <c r="BD13" s="279"/>
       <c r="BE13" s="279"/>
       <c r="BF13" s="280"/>
-      <c r="BG13" s="264" t="s">
-        <v>105</v>
-      </c>
-      <c r="BH13" s="264"/>
-      <c r="BI13" s="264"/>
-      <c r="BJ13" s="264"/>
-      <c r="BK13" s="264"/>
-      <c r="BL13" s="264"/>
-      <c r="BM13" s="264"/>
-      <c r="BN13" s="264"/>
-      <c r="BO13" s="264"/>
-      <c r="BP13" s="264"/>
-      <c r="BQ13" s="264"/>
-      <c r="BR13" s="264"/>
-      <c r="BS13" s="264"/>
-      <c r="BT13" s="264"/>
-      <c r="BU13" s="265"/>
+      <c r="BG13" s="494" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH13" s="494"/>
+      <c r="BI13" s="494"/>
+      <c r="BJ13" s="494"/>
+      <c r="BK13" s="494"/>
+      <c r="BL13" s="494"/>
+      <c r="BM13" s="494"/>
+      <c r="BN13" s="494"/>
+      <c r="BO13" s="494"/>
+      <c r="BP13" s="494"/>
+      <c r="BQ13" s="494"/>
+      <c r="BR13" s="494"/>
+      <c r="BS13" s="494"/>
+      <c r="BT13" s="494"/>
+      <c r="BU13" s="495"/>
       <c r="BV13" s="506" t="s">
         <v>78</v>
       </c>
@@ -6236,14 +6948,27 @@
       <c r="CD13" s="238"/>
       <c r="CE13" s="238"/>
       <c r="CF13" s="239"/>
-    </row>
-    <row r="14" customHeight="1" ht="87" customFormat="1" s="504">
-      <c r="A14" s="264">
-        <v>5</v>
+      <c r="CG13" s="220"/>
+      <c r="CH13" s="220"/>
+      <c r="CI13" s="220"/>
+      <c r="CJ13" s="220"/>
+      <c r="CK13" s="220"/>
+      <c r="CL13" s="220"/>
+      <c r="CM13" s="220"/>
+      <c r="CN13" s="220"/>
+      <c r="CO13" s="220"/>
+      <c r="CP13" s="220"/>
+      <c r="CQ13" s="220"/>
+      <c r="CR13" s="220"/>
+      <c r="CS13" s="220"/>
+    </row>
+    <row r="14" customHeight="1" ht="168" customFormat="1" s="503">
+      <c r="A14" s="264" t="s">
+        <v>107</v>
       </c>
       <c r="B14" s="265"/>
       <c r="C14" s="264" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D14" s="264"/>
       <c r="E14" s="264"/>
@@ -6283,13 +7008,13 @@
       <c r="AG14" s="239"/>
       <c r="AH14" s="237"/>
       <c r="AI14" s="238"/>
-      <c r="AJ14" s="511"/>
-      <c r="AK14" s="515" t="s">
+      <c r="AJ14" s="239"/>
+      <c r="AK14" s="518" t="s">
         <v>41</v>
       </c>
-      <c r="AL14" s="516"/>
-      <c r="AM14" s="517"/>
-      <c r="AN14" s="471" t="s">
+      <c r="AL14" s="518"/>
+      <c r="AM14" s="518"/>
+      <c r="AN14" s="279" t="s">
         <v>152</v>
       </c>
       <c r="AO14" s="279"/>
@@ -6297,7 +7022,7 @@
       <c r="AQ14" s="279"/>
       <c r="AR14" s="280"/>
       <c r="AS14" s="279" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AT14" s="279"/>
       <c r="AU14" s="279"/>
@@ -6311,25 +7036,25 @@
       <c r="BC14" s="279"/>
       <c r="BD14" s="279"/>
       <c r="BE14" s="279"/>
-      <c r="BF14" s="280"/>
-      <c r="BG14" s="494" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH14" s="494"/>
-      <c r="BI14" s="494"/>
-      <c r="BJ14" s="494"/>
-      <c r="BK14" s="494"/>
-      <c r="BL14" s="494"/>
-      <c r="BM14" s="494"/>
-      <c r="BN14" s="494"/>
-      <c r="BO14" s="494"/>
-      <c r="BP14" s="494"/>
-      <c r="BQ14" s="494"/>
-      <c r="BR14" s="494"/>
-      <c r="BS14" s="494"/>
-      <c r="BT14" s="494"/>
-      <c r="BU14" s="495"/>
-      <c r="BV14" s="506" t="s">
+      <c r="BF14" s="394"/>
+      <c r="BG14" s="501" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH14" s="501"/>
+      <c r="BI14" s="501"/>
+      <c r="BJ14" s="501"/>
+      <c r="BK14" s="501"/>
+      <c r="BL14" s="501"/>
+      <c r="BM14" s="501"/>
+      <c r="BN14" s="501"/>
+      <c r="BO14" s="501"/>
+      <c r="BP14" s="501"/>
+      <c r="BQ14" s="501"/>
+      <c r="BR14" s="501"/>
+      <c r="BS14" s="501"/>
+      <c r="BT14" s="501"/>
+      <c r="BU14" s="502"/>
+      <c r="BV14" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW14" s="507"/>
@@ -6358,9 +7083,9 @@
       <c r="CR14" s="220"/>
       <c r="CS14" s="220"/>
     </row>
-    <row r="15" customHeight="1" ht="168" customFormat="1" s="505">
+    <row r="15" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A15" s="264" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B15" s="265"/>
       <c r="C15" s="264" t="s">
@@ -6404,37 +7129,37 @@
       <c r="AG15" s="239"/>
       <c r="AH15" s="237"/>
       <c r="AI15" s="238"/>
-      <c r="AJ15" s="239"/>
-      <c r="AK15" s="528" t="s">
+      <c r="AJ15" s="511"/>
+      <c r="AK15" s="515" t="s">
         <v>41</v>
       </c>
-      <c r="AL15" s="529"/>
-      <c r="AM15" s="530"/>
-      <c r="AN15" s="279" t="s">
+      <c r="AL15" s="516"/>
+      <c r="AM15" s="517"/>
+      <c r="AN15" s="471" t="s">
         <v>152</v>
       </c>
       <c r="AO15" s="279"/>
       <c r="AP15" s="279"/>
       <c r="AQ15" s="279"/>
       <c r="AR15" s="280"/>
-      <c r="AS15" s="540" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT15" s="540"/>
-      <c r="AU15" s="540"/>
-      <c r="AV15" s="540"/>
-      <c r="AW15" s="540"/>
-      <c r="AX15" s="540"/>
-      <c r="AY15" s="540"/>
-      <c r="AZ15" s="540"/>
-      <c r="BA15" s="540"/>
-      <c r="BB15" s="540"/>
-      <c r="BC15" s="540"/>
-      <c r="BD15" s="540"/>
-      <c r="BE15" s="540"/>
-      <c r="BF15" s="541"/>
-      <c r="BG15" s="521" t="s">
-        <v>115</v>
+      <c r="AS15" s="279" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT15" s="279"/>
+      <c r="AU15" s="279"/>
+      <c r="AV15" s="279"/>
+      <c r="AW15" s="279"/>
+      <c r="AX15" s="279"/>
+      <c r="AY15" s="279"/>
+      <c r="AZ15" s="279"/>
+      <c r="BA15" s="279"/>
+      <c r="BB15" s="279"/>
+      <c r="BC15" s="279"/>
+      <c r="BD15" s="279"/>
+      <c r="BE15" s="279"/>
+      <c r="BF15" s="394"/>
+      <c r="BG15" s="501" t="s">
+        <v>126</v>
       </c>
       <c r="BH15" s="501"/>
       <c r="BI15" s="501"/>
@@ -6479,13 +7204,13 @@
       <c r="CR15" s="220"/>
       <c r="CS15" s="220"/>
     </row>
-    <row r="16" customHeight="1" ht="168" customFormat="1" s="504">
-      <c r="A16" s="264" t="s">
-        <v>119</v>
+    <row r="16" customHeight="1" ht="168" customFormat="1" s="503">
+      <c r="A16" s="264">
+        <v>8</v>
       </c>
       <c r="B16" s="265"/>
       <c r="C16" s="264" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D16" s="264"/>
       <c r="E16" s="264"/>
@@ -6539,7 +7264,7 @@
       <c r="AQ16" s="279"/>
       <c r="AR16" s="280"/>
       <c r="AS16" s="279" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AT16" s="279"/>
       <c r="AU16" s="279"/>
@@ -6555,7 +7280,7 @@
       <c r="BE16" s="279"/>
       <c r="BF16" s="394"/>
       <c r="BG16" s="501" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BH16" s="501"/>
       <c r="BI16" s="501"/>
@@ -6571,7 +7296,7 @@
       <c r="BS16" s="501"/>
       <c r="BT16" s="501"/>
       <c r="BU16" s="502"/>
-      <c r="BV16" s="527" t="s">
+      <c r="BV16" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW16" s="507"/>
@@ -6600,13 +7325,13 @@
       <c r="CR16" s="220"/>
       <c r="CS16" s="220"/>
     </row>
-    <row r="17" customHeight="1" ht="168" customFormat="1" s="504">
-      <c r="A17" s="264">
-        <v>8</v>
+    <row r="17" customHeight="1" ht="168" customFormat="1" s="503">
+      <c r="A17" s="264" t="s">
+        <v>123</v>
       </c>
       <c r="B17" s="265"/>
       <c r="C17" s="264" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D17" s="264"/>
       <c r="E17" s="264"/>
@@ -6646,13 +7371,13 @@
       <c r="AG17" s="239"/>
       <c r="AH17" s="237"/>
       <c r="AI17" s="238"/>
-      <c r="AJ17" s="527"/>
+      <c r="AJ17" s="511"/>
       <c r="AK17" s="515" t="s">
         <v>41</v>
       </c>
       <c r="AL17" s="516"/>
       <c r="AM17" s="517"/>
-      <c r="AN17" s="531" t="s">
+      <c r="AN17" s="471" t="s">
         <v>152</v>
       </c>
       <c r="AO17" s="279"/>
@@ -6692,7 +7417,7 @@
       <c r="BS17" s="501"/>
       <c r="BT17" s="501"/>
       <c r="BU17" s="502"/>
-      <c r="BV17" s="527" t="s">
+      <c r="BV17" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW17" s="507"/>
@@ -6721,13 +7446,13 @@
       <c r="CR17" s="220"/>
       <c r="CS17" s="220"/>
     </row>
-    <row r="18" customHeight="1" ht="168" customFormat="1" s="504">
-      <c r="A18" s="264" t="s">
-        <v>123</v>
+    <row r="18" customHeight="1" ht="168" customFormat="1" s="503">
+      <c r="A18" s="264">
+        <v>10</v>
       </c>
       <c r="B18" s="265"/>
       <c r="C18" s="264" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D18" s="264"/>
       <c r="E18" s="264"/>
@@ -6767,13 +7492,13 @@
       <c r="AG18" s="239"/>
       <c r="AH18" s="237"/>
       <c r="AI18" s="238"/>
-      <c r="AJ18" s="527"/>
+      <c r="AJ18" s="511"/>
       <c r="AK18" s="515" t="s">
         <v>41</v>
       </c>
       <c r="AL18" s="516"/>
       <c r="AM18" s="517"/>
-      <c r="AN18" s="531" t="s">
+      <c r="AN18" s="471" t="s">
         <v>152</v>
       </c>
       <c r="AO18" s="279"/>
@@ -6781,7 +7506,7 @@
       <c r="AQ18" s="279"/>
       <c r="AR18" s="280"/>
       <c r="AS18" s="279" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AT18" s="279"/>
       <c r="AU18" s="279"/>
@@ -6797,7 +7522,7 @@
       <c r="BE18" s="279"/>
       <c r="BF18" s="394"/>
       <c r="BG18" s="501" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="BH18" s="501"/>
       <c r="BI18" s="501"/>
@@ -6813,7 +7538,7 @@
       <c r="BS18" s="501"/>
       <c r="BT18" s="501"/>
       <c r="BU18" s="502"/>
-      <c r="BV18" s="527" t="s">
+      <c r="BV18" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW18" s="507"/>
@@ -6842,13 +7567,13 @@
       <c r="CR18" s="220"/>
       <c r="CS18" s="220"/>
     </row>
-    <row r="19" customHeight="1" ht="168" customFormat="1" s="504">
+    <row r="19" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A19" s="264">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="265"/>
-      <c r="C19" s="264" t="s">
-        <v>127</v>
+      <c r="C19" s="279" t="s">
+        <v>130</v>
       </c>
       <c r="D19" s="264"/>
       <c r="E19" s="264"/>
@@ -6888,21 +7613,21 @@
       <c r="AG19" s="239"/>
       <c r="AH19" s="237"/>
       <c r="AI19" s="238"/>
-      <c r="AJ19" s="527"/>
+      <c r="AJ19" s="511"/>
       <c r="AK19" s="515" t="s">
         <v>41</v>
       </c>
       <c r="AL19" s="516"/>
       <c r="AM19" s="517"/>
-      <c r="AN19" s="531" t="s">
-        <v>152</v>
+      <c r="AN19" s="471" t="s">
+        <v>94</v>
       </c>
       <c r="AO19" s="279"/>
       <c r="AP19" s="279"/>
       <c r="AQ19" s="279"/>
       <c r="AR19" s="280"/>
       <c r="AS19" s="279" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AT19" s="279"/>
       <c r="AU19" s="279"/>
@@ -6918,7 +7643,7 @@
       <c r="BE19" s="279"/>
       <c r="BF19" s="394"/>
       <c r="BG19" s="501" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BH19" s="501"/>
       <c r="BI19" s="501"/>
@@ -6934,7 +7659,7 @@
       <c r="BS19" s="501"/>
       <c r="BT19" s="501"/>
       <c r="BU19" s="502"/>
-      <c r="BV19" s="527" t="s">
+      <c r="BV19" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW19" s="507"/>
@@ -6963,13 +7688,13 @@
       <c r="CR19" s="220"/>
       <c r="CS19" s="220"/>
     </row>
-    <row r="20" customHeight="1" ht="168" customFormat="1" s="504">
+    <row r="20" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A20" s="264">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="265"/>
       <c r="C20" s="279" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D20" s="264"/>
       <c r="E20" s="264"/>
@@ -6993,8 +7718,10 @@
         <v>69</v>
       </c>
       <c r="U20" s="258"/>
-      <c r="V20" s="237"/>
-      <c r="W20" s="239"/>
+      <c r="V20" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="W20" s="258"/>
       <c r="X20" s="237"/>
       <c r="Y20" s="239"/>
       <c r="Z20" s="237"/>
@@ -7009,13 +7736,13 @@
       <c r="AG20" s="239"/>
       <c r="AH20" s="237"/>
       <c r="AI20" s="238"/>
-      <c r="AJ20" s="527"/>
+      <c r="AJ20" s="511"/>
       <c r="AK20" s="515" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL20" s="516"/>
       <c r="AM20" s="517"/>
-      <c r="AN20" s="531" t="s">
+      <c r="AN20" s="471" t="s">
         <v>94</v>
       </c>
       <c r="AO20" s="279"/>
@@ -7023,7 +7750,7 @@
       <c r="AQ20" s="279"/>
       <c r="AR20" s="280"/>
       <c r="AS20" s="279" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AT20" s="279"/>
       <c r="AU20" s="279"/>
@@ -7039,7 +7766,7 @@
       <c r="BE20" s="279"/>
       <c r="BF20" s="394"/>
       <c r="BG20" s="501" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="BH20" s="501"/>
       <c r="BI20" s="501"/>
@@ -7055,7 +7782,7 @@
       <c r="BS20" s="501"/>
       <c r="BT20" s="501"/>
       <c r="BU20" s="502"/>
-      <c r="BV20" s="527" t="s">
+      <c r="BV20" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW20" s="507"/>
@@ -7084,13 +7811,13 @@
       <c r="CR20" s="220"/>
       <c r="CS20" s="220"/>
     </row>
-    <row r="21" customHeight="1" ht="168" customFormat="1" s="504">
+    <row r="21" customHeight="1" ht="87" customFormat="1" s="503">
       <c r="A21" s="264">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="265"/>
-      <c r="C21" s="279" t="s">
-        <v>133</v>
+      <c r="C21" s="264" t="s">
+        <v>108</v>
       </c>
       <c r="D21" s="264"/>
       <c r="E21" s="264"/>
@@ -7114,10 +7841,8 @@
         <v>69</v>
       </c>
       <c r="U21" s="258"/>
-      <c r="V21" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="W21" s="258"/>
+      <c r="V21" s="237"/>
+      <c r="W21" s="239"/>
       <c r="X21" s="237"/>
       <c r="Y21" s="239"/>
       <c r="Z21" s="237"/>
@@ -7132,21 +7857,21 @@
       <c r="AG21" s="239"/>
       <c r="AH21" s="237"/>
       <c r="AI21" s="238"/>
-      <c r="AJ21" s="527"/>
+      <c r="AJ21" s="511"/>
       <c r="AK21" s="515" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL21" s="516"/>
       <c r="AM21" s="517"/>
-      <c r="AN21" s="531" t="s">
-        <v>94</v>
+      <c r="AN21" s="471" t="s">
+        <v>152</v>
       </c>
       <c r="AO21" s="279"/>
       <c r="AP21" s="279"/>
       <c r="AQ21" s="279"/>
       <c r="AR21" s="280"/>
       <c r="AS21" s="279" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AT21" s="279"/>
       <c r="AU21" s="279"/>
@@ -7160,25 +7885,25 @@
       <c r="BC21" s="279"/>
       <c r="BD21" s="279"/>
       <c r="BE21" s="279"/>
-      <c r="BF21" s="394"/>
-      <c r="BG21" s="501" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH21" s="501"/>
-      <c r="BI21" s="501"/>
-      <c r="BJ21" s="501"/>
-      <c r="BK21" s="501"/>
-      <c r="BL21" s="501"/>
-      <c r="BM21" s="501"/>
-      <c r="BN21" s="501"/>
-      <c r="BO21" s="501"/>
-      <c r="BP21" s="501"/>
-      <c r="BQ21" s="501"/>
-      <c r="BR21" s="501"/>
-      <c r="BS21" s="501"/>
-      <c r="BT21" s="501"/>
-      <c r="BU21" s="502"/>
-      <c r="BV21" s="527" t="s">
+      <c r="BF21" s="280"/>
+      <c r="BG21" s="494" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH21" s="494"/>
+      <c r="BI21" s="494"/>
+      <c r="BJ21" s="494"/>
+      <c r="BK21" s="494"/>
+      <c r="BL21" s="494"/>
+      <c r="BM21" s="494"/>
+      <c r="BN21" s="494"/>
+      <c r="BO21" s="494"/>
+      <c r="BP21" s="494"/>
+      <c r="BQ21" s="494"/>
+      <c r="BR21" s="494"/>
+      <c r="BS21" s="494"/>
+      <c r="BT21" s="494"/>
+      <c r="BU21" s="495"/>
+      <c r="BV21" s="506" t="s">
         <v>78</v>
       </c>
       <c r="BW21" s="507"/>
@@ -7207,13 +7932,13 @@
       <c r="CR21" s="220"/>
       <c r="CS21" s="220"/>
     </row>
-    <row r="22" customHeight="1" ht="87" customFormat="1" s="504">
+    <row r="22" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A22" s="264">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="265"/>
       <c r="C22" s="264" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D22" s="264"/>
       <c r="E22" s="264"/>
@@ -7253,13 +7978,13 @@
       <c r="AG22" s="239"/>
       <c r="AH22" s="237"/>
       <c r="AI22" s="238"/>
-      <c r="AJ22" s="527"/>
-      <c r="AK22" s="515" t="s">
+      <c r="AJ22" s="239"/>
+      <c r="AK22" s="518" t="s">
         <v>41</v>
       </c>
-      <c r="AL22" s="516"/>
-      <c r="AM22" s="517"/>
-      <c r="AN22" s="531" t="s">
+      <c r="AL22" s="518"/>
+      <c r="AM22" s="518"/>
+      <c r="AN22" s="279" t="s">
         <v>152</v>
       </c>
       <c r="AO22" s="279"/>
@@ -7267,7 +7992,7 @@
       <c r="AQ22" s="279"/>
       <c r="AR22" s="280"/>
       <c r="AS22" s="279" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AT22" s="279"/>
       <c r="AU22" s="279"/>
@@ -7281,25 +8006,25 @@
       <c r="BC22" s="279"/>
       <c r="BD22" s="279"/>
       <c r="BE22" s="279"/>
-      <c r="BF22" s="280"/>
-      <c r="BG22" s="532" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH22" s="532"/>
-      <c r="BI22" s="532"/>
-      <c r="BJ22" s="532"/>
-      <c r="BK22" s="532"/>
-      <c r="BL22" s="532"/>
-      <c r="BM22" s="532"/>
-      <c r="BN22" s="532"/>
-      <c r="BO22" s="532"/>
-      <c r="BP22" s="532"/>
-      <c r="BQ22" s="532"/>
-      <c r="BR22" s="532"/>
-      <c r="BS22" s="532"/>
-      <c r="BT22" s="532"/>
-      <c r="BU22" s="533"/>
-      <c r="BV22" s="506" t="s">
+      <c r="BF22" s="394"/>
+      <c r="BG22" s="501" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH22" s="501"/>
+      <c r="BI22" s="501"/>
+      <c r="BJ22" s="501"/>
+      <c r="BK22" s="501"/>
+      <c r="BL22" s="501"/>
+      <c r="BM22" s="501"/>
+      <c r="BN22" s="501"/>
+      <c r="BO22" s="501"/>
+      <c r="BP22" s="501"/>
+      <c r="BQ22" s="501"/>
+      <c r="BR22" s="501"/>
+      <c r="BS22" s="501"/>
+      <c r="BT22" s="501"/>
+      <c r="BU22" s="502"/>
+      <c r="BV22" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW22" s="507"/>
@@ -7328,9 +8053,9 @@
       <c r="CR22" s="220"/>
       <c r="CS22" s="220"/>
     </row>
-    <row r="23" customHeight="1" ht="168" customFormat="1" s="504">
+    <row r="23" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A23" s="264">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="265"/>
       <c r="C23" s="264" t="s">
@@ -7374,13 +8099,13 @@
       <c r="AG23" s="239"/>
       <c r="AH23" s="237"/>
       <c r="AI23" s="238"/>
-      <c r="AJ23" s="239"/>
-      <c r="AK23" s="526" t="s">
+      <c r="AJ23" s="511"/>
+      <c r="AK23" s="515" t="s">
         <v>41</v>
       </c>
-      <c r="AL23" s="526"/>
-      <c r="AM23" s="526"/>
-      <c r="AN23" s="279" t="s">
+      <c r="AL23" s="516"/>
+      <c r="AM23" s="517"/>
+      <c r="AN23" s="471" t="s">
         <v>152</v>
       </c>
       <c r="AO23" s="279"/>
@@ -7388,7 +8113,7 @@
       <c r="AQ23" s="279"/>
       <c r="AR23" s="280"/>
       <c r="AS23" s="279" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AT23" s="279"/>
       <c r="AU23" s="279"/>
@@ -7404,7 +8129,7 @@
       <c r="BE23" s="279"/>
       <c r="BF23" s="394"/>
       <c r="BG23" s="501" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="BH23" s="501"/>
       <c r="BI23" s="501"/>
@@ -7420,7 +8145,7 @@
       <c r="BS23" s="501"/>
       <c r="BT23" s="501"/>
       <c r="BU23" s="502"/>
-      <c r="BV23" s="527" t="s">
+      <c r="BV23" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW23" s="507"/>
@@ -7449,13 +8174,13 @@
       <c r="CR23" s="220"/>
       <c r="CS23" s="220"/>
     </row>
-    <row r="24" customHeight="1" ht="168" customFormat="1" s="504">
+    <row r="24" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A24" s="264">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="265"/>
       <c r="C24" s="264" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D24" s="264"/>
       <c r="E24" s="264"/>
@@ -7495,13 +8220,13 @@
       <c r="AG24" s="239"/>
       <c r="AH24" s="237"/>
       <c r="AI24" s="238"/>
-      <c r="AJ24" s="527"/>
+      <c r="AJ24" s="511"/>
       <c r="AK24" s="515" t="s">
         <v>41</v>
       </c>
       <c r="AL24" s="516"/>
       <c r="AM24" s="517"/>
-      <c r="AN24" s="531" t="s">
+      <c r="AN24" s="471" t="s">
         <v>152</v>
       </c>
       <c r="AO24" s="279"/>
@@ -7509,7 +8234,7 @@
       <c r="AQ24" s="279"/>
       <c r="AR24" s="280"/>
       <c r="AS24" s="279" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT24" s="279"/>
       <c r="AU24" s="279"/>
@@ -7525,7 +8250,7 @@
       <c r="BE24" s="279"/>
       <c r="BF24" s="394"/>
       <c r="BG24" s="501" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BH24" s="501"/>
       <c r="BI24" s="501"/>
@@ -7541,7 +8266,7 @@
       <c r="BS24" s="501"/>
       <c r="BT24" s="501"/>
       <c r="BU24" s="502"/>
-      <c r="BV24" s="527" t="s">
+      <c r="BV24" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW24" s="507"/>
@@ -7570,13 +8295,13 @@
       <c r="CR24" s="220"/>
       <c r="CS24" s="220"/>
     </row>
-    <row r="25" customHeight="1" ht="168" customFormat="1" s="504">
+    <row r="25" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A25" s="264">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="265"/>
       <c r="C25" s="264" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D25" s="264"/>
       <c r="E25" s="264"/>
@@ -7616,13 +8341,13 @@
       <c r="AG25" s="239"/>
       <c r="AH25" s="237"/>
       <c r="AI25" s="238"/>
-      <c r="AJ25" s="527"/>
+      <c r="AJ25" s="511"/>
       <c r="AK25" s="515" t="s">
         <v>41</v>
       </c>
       <c r="AL25" s="516"/>
       <c r="AM25" s="517"/>
-      <c r="AN25" s="531" t="s">
+      <c r="AN25" s="471" t="s">
         <v>152</v>
       </c>
       <c r="AO25" s="279"/>
@@ -7630,7 +8355,7 @@
       <c r="AQ25" s="279"/>
       <c r="AR25" s="280"/>
       <c r="AS25" s="279" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AT25" s="279"/>
       <c r="AU25" s="279"/>
@@ -7662,7 +8387,7 @@
       <c r="BS25" s="501"/>
       <c r="BT25" s="501"/>
       <c r="BU25" s="502"/>
-      <c r="BV25" s="527" t="s">
+      <c r="BV25" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW25" s="507"/>
@@ -7691,13 +8416,13 @@
       <c r="CR25" s="220"/>
       <c r="CS25" s="220"/>
     </row>
-    <row r="26" customHeight="1" ht="168" customFormat="1" s="504">
+    <row r="26" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A26" s="264">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="265"/>
       <c r="C26" s="264" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D26" s="264"/>
       <c r="E26" s="264"/>
@@ -7737,13 +8462,13 @@
       <c r="AG26" s="239"/>
       <c r="AH26" s="237"/>
       <c r="AI26" s="238"/>
-      <c r="AJ26" s="527"/>
+      <c r="AJ26" s="511"/>
       <c r="AK26" s="515" t="s">
         <v>41</v>
       </c>
       <c r="AL26" s="516"/>
       <c r="AM26" s="517"/>
-      <c r="AN26" s="531" t="s">
+      <c r="AN26" s="471" t="s">
         <v>152</v>
       </c>
       <c r="AO26" s="279"/>
@@ -7751,7 +8476,7 @@
       <c r="AQ26" s="279"/>
       <c r="AR26" s="280"/>
       <c r="AS26" s="279" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AT26" s="279"/>
       <c r="AU26" s="279"/>
@@ -7767,7 +8492,7 @@
       <c r="BE26" s="279"/>
       <c r="BF26" s="394"/>
       <c r="BG26" s="501" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="BH26" s="501"/>
       <c r="BI26" s="501"/>
@@ -7783,7 +8508,7 @@
       <c r="BS26" s="501"/>
       <c r="BT26" s="501"/>
       <c r="BU26" s="502"/>
-      <c r="BV26" s="527" t="s">
+      <c r="BV26" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW26" s="507"/>
@@ -7812,13 +8537,13 @@
       <c r="CR26" s="220"/>
       <c r="CS26" s="220"/>
     </row>
-    <row r="27" customHeight="1" ht="168" customFormat="1" s="504">
+    <row r="27" customHeight="1" ht="168" customFormat="1" s="503">
       <c r="A27" s="264">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="265"/>
-      <c r="C27" s="264" t="s">
-        <v>127</v>
+      <c r="C27" s="279" t="s">
+        <v>130</v>
       </c>
       <c r="D27" s="264"/>
       <c r="E27" s="264"/>
@@ -7858,13 +8583,13 @@
       <c r="AG27" s="239"/>
       <c r="AH27" s="237"/>
       <c r="AI27" s="238"/>
-      <c r="AJ27" s="527"/>
+      <c r="AJ27" s="511"/>
       <c r="AK27" s="515" t="s">
         <v>41</v>
       </c>
       <c r="AL27" s="516"/>
       <c r="AM27" s="517"/>
-      <c r="AN27" s="531" t="s">
+      <c r="AN27" s="471" t="s">
         <v>152</v>
       </c>
       <c r="AO27" s="279"/>
@@ -7872,7 +8597,7 @@
       <c r="AQ27" s="279"/>
       <c r="AR27" s="280"/>
       <c r="AS27" s="279" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT27" s="279"/>
       <c r="AU27" s="279"/>
@@ -7888,7 +8613,7 @@
       <c r="BE27" s="279"/>
       <c r="BF27" s="394"/>
       <c r="BG27" s="501" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BH27" s="501"/>
       <c r="BI27" s="501"/>
@@ -7904,7 +8629,7 @@
       <c r="BS27" s="501"/>
       <c r="BT27" s="501"/>
       <c r="BU27" s="502"/>
-      <c r="BV27" s="527" t="s">
+      <c r="BV27" s="511" t="s">
         <v>78</v>
       </c>
       <c r="BW27" s="507"/>
@@ -7933,126 +8658,91 @@
       <c r="CR27" s="220"/>
       <c r="CS27" s="220"/>
     </row>
-    <row r="28" customHeight="1" ht="168" customFormat="1" s="504">
-      <c r="A28" s="264">
-        <v>19</v>
-      </c>
-      <c r="B28" s="265"/>
-      <c r="C28" s="279" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="264"/>
-      <c r="E28" s="264"/>
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="264"/>
-      <c r="J28" s="264"/>
-      <c r="K28" s="264"/>
-      <c r="L28" s="264"/>
-      <c r="M28" s="264"/>
-      <c r="N28" s="264"/>
-      <c r="O28" s="265"/>
-      <c r="P28" s="237" t="s">
-        <v>69</v>
-      </c>
+    <row r="28" customFormat="1" s="220">
+      <c r="A28" s="237"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="237"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="238"/>
+      <c r="J28" s="238"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="238"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="239"/>
+      <c r="P28" s="237"/>
       <c r="Q28" s="239"/>
       <c r="R28" s="237"/>
       <c r="S28" s="239"/>
-      <c r="T28" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="U28" s="258"/>
+      <c r="T28" s="237"/>
+      <c r="U28" s="239"/>
       <c r="V28" s="237"/>
       <c r="W28" s="239"/>
       <c r="X28" s="237"/>
       <c r="Y28" s="239"/>
       <c r="Z28" s="237"/>
       <c r="AA28" s="239"/>
-      <c r="AB28" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC28" s="258"/>
+      <c r="AB28" s="237"/>
+      <c r="AC28" s="239"/>
       <c r="AD28" s="237"/>
       <c r="AE28" s="238"/>
       <c r="AF28" s="238"/>
       <c r="AG28" s="239"/>
       <c r="AH28" s="237"/>
       <c r="AI28" s="238"/>
-      <c r="AJ28" s="527"/>
-      <c r="AK28" s="515" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL28" s="516"/>
-      <c r="AM28" s="517"/>
-      <c r="AN28" s="531" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO28" s="279"/>
-      <c r="AP28" s="279"/>
-      <c r="AQ28" s="279"/>
-      <c r="AR28" s="280"/>
-      <c r="AS28" s="279" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT28" s="279"/>
-      <c r="AU28" s="279"/>
-      <c r="AV28" s="279"/>
-      <c r="AW28" s="279"/>
-      <c r="AX28" s="279"/>
-      <c r="AY28" s="279"/>
-      <c r="AZ28" s="279"/>
-      <c r="BA28" s="279"/>
-      <c r="BB28" s="279"/>
-      <c r="BC28" s="279"/>
-      <c r="BD28" s="279"/>
-      <c r="BE28" s="279"/>
-      <c r="BF28" s="394"/>
-      <c r="BG28" s="501" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH28" s="501"/>
-      <c r="BI28" s="501"/>
-      <c r="BJ28" s="501"/>
-      <c r="BK28" s="501"/>
-      <c r="BL28" s="501"/>
-      <c r="BM28" s="501"/>
-      <c r="BN28" s="501"/>
-      <c r="BO28" s="501"/>
-      <c r="BP28" s="501"/>
-      <c r="BQ28" s="501"/>
-      <c r="BR28" s="501"/>
-      <c r="BS28" s="501"/>
-      <c r="BT28" s="501"/>
-      <c r="BU28" s="502"/>
-      <c r="BV28" s="527" t="s">
-        <v>78</v>
-      </c>
-      <c r="BW28" s="507"/>
-      <c r="BX28" s="507"/>
-      <c r="BY28" s="508"/>
-      <c r="BZ28" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA28" s="264"/>
-      <c r="CB28" s="265"/>
+      <c r="AJ28" s="239"/>
+      <c r="AK28" s="522"/>
+      <c r="AL28" s="524"/>
+      <c r="AM28" s="525"/>
+      <c r="AN28" s="237"/>
+      <c r="AO28" s="238"/>
+      <c r="AP28" s="238"/>
+      <c r="AQ28" s="238"/>
+      <c r="AR28" s="239"/>
+      <c r="AS28" s="237"/>
+      <c r="AT28" s="238"/>
+      <c r="AU28" s="238"/>
+      <c r="AV28" s="238"/>
+      <c r="AW28" s="238"/>
+      <c r="AX28" s="238"/>
+      <c r="AY28" s="238"/>
+      <c r="AZ28" s="238"/>
+      <c r="BA28" s="238"/>
+      <c r="BB28" s="238"/>
+      <c r="BC28" s="238"/>
+      <c r="BD28" s="250"/>
+      <c r="BE28" s="238"/>
+      <c r="BF28" s="239"/>
+      <c r="BG28" s="522"/>
+      <c r="BH28" s="523"/>
+      <c r="BI28" s="523"/>
+      <c r="BJ28" s="523"/>
+      <c r="BK28" s="523"/>
+      <c r="BL28" s="524"/>
+      <c r="BM28" s="524"/>
+      <c r="BN28" s="524"/>
+      <c r="BO28" s="524"/>
+      <c r="BP28" s="524"/>
+      <c r="BQ28" s="524"/>
+      <c r="BR28" s="524"/>
+      <c r="BS28" s="524"/>
+      <c r="BT28" s="524"/>
+      <c r="BU28" s="525"/>
+      <c r="BV28" s="237"/>
+      <c r="BW28" s="238"/>
+      <c r="BX28" s="238"/>
+      <c r="BY28" s="239"/>
+      <c r="BZ28" s="237"/>
+      <c r="CA28" s="238"/>
+      <c r="CB28" s="239"/>
       <c r="CC28" s="237"/>
       <c r="CD28" s="238"/>
       <c r="CE28" s="238"/>
       <c r="CF28" s="239"/>
-      <c r="CG28" s="220"/>
-      <c r="CH28" s="220"/>
-      <c r="CI28" s="220"/>
-      <c r="CJ28" s="220"/>
-      <c r="CK28" s="220"/>
-      <c r="CL28" s="220"/>
-      <c r="CM28" s="220"/>
-      <c r="CN28" s="220"/>
-      <c r="CO28" s="220"/>
-      <c r="CP28" s="220"/>
-      <c r="CQ28" s="220"/>
-      <c r="CR28" s="220"/>
-      <c r="CS28" s="220"/>
     </row>
     <row r="29" customFormat="1" s="220">
       <c r="A29" s="237"/>
@@ -8091,9 +8781,9 @@
       <c r="AH29" s="237"/>
       <c r="AI29" s="238"/>
       <c r="AJ29" s="239"/>
-      <c r="AK29" s="522"/>
-      <c r="AL29" s="524"/>
-      <c r="AM29" s="525"/>
+      <c r="AK29" s="237"/>
+      <c r="AL29" s="238"/>
+      <c r="AM29" s="239"/>
       <c r="AN29" s="237"/>
       <c r="AO29" s="238"/>
       <c r="AP29" s="238"/>
@@ -8113,21 +8803,21 @@
       <c r="BD29" s="250"/>
       <c r="BE29" s="238"/>
       <c r="BF29" s="239"/>
-      <c r="BG29" s="522"/>
-      <c r="BH29" s="523"/>
-      <c r="BI29" s="523"/>
-      <c r="BJ29" s="523"/>
-      <c r="BK29" s="523"/>
-      <c r="BL29" s="524"/>
-      <c r="BM29" s="524"/>
-      <c r="BN29" s="524"/>
-      <c r="BO29" s="524"/>
-      <c r="BP29" s="524"/>
-      <c r="BQ29" s="524"/>
-      <c r="BR29" s="524"/>
-      <c r="BS29" s="524"/>
-      <c r="BT29" s="524"/>
-      <c r="BU29" s="525"/>
+      <c r="BG29" s="237"/>
+      <c r="BH29" s="250"/>
+      <c r="BI29" s="250"/>
+      <c r="BJ29" s="250"/>
+      <c r="BK29" s="250"/>
+      <c r="BL29" s="238"/>
+      <c r="BM29" s="238"/>
+      <c r="BN29" s="238"/>
+      <c r="BO29" s="238"/>
+      <c r="BP29" s="238"/>
+      <c r="BQ29" s="238"/>
+      <c r="BR29" s="238"/>
+      <c r="BS29" s="238"/>
+      <c r="BT29" s="238"/>
+      <c r="BU29" s="239"/>
       <c r="BV29" s="237"/>
       <c r="BW29" s="238"/>
       <c r="BX29" s="238"/>
@@ -8830,99 +9520,13 @@
     </row>
     <row r="38" customFormat="1" s="220">
       <c r="A38" s="237"/>
-      <c r="B38" s="239"/>
-      <c r="C38" s="237"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="238"/>
-      <c r="F38" s="238"/>
-      <c r="G38" s="238"/>
-      <c r="H38" s="238"/>
-      <c r="I38" s="238"/>
-      <c r="J38" s="238"/>
-      <c r="K38" s="238"/>
-      <c r="L38" s="238"/>
-      <c r="M38" s="238"/>
-      <c r="N38" s="238"/>
-      <c r="O38" s="239"/>
-      <c r="P38" s="237"/>
-      <c r="Q38" s="239"/>
-      <c r="R38" s="237"/>
-      <c r="S38" s="239"/>
-      <c r="T38" s="237"/>
-      <c r="U38" s="239"/>
-      <c r="V38" s="237"/>
-      <c r="W38" s="239"/>
-      <c r="X38" s="237"/>
-      <c r="Y38" s="239"/>
-      <c r="Z38" s="237"/>
+      <c r="Z38" s="251" t="s">
+        <v>67</v>
+      </c>
       <c r="AA38" s="239"/>
-      <c r="AB38" s="237"/>
-      <c r="AC38" s="239"/>
-      <c r="AD38" s="237"/>
-      <c r="AE38" s="238"/>
-      <c r="AF38" s="238"/>
-      <c r="AG38" s="239"/>
-      <c r="AH38" s="237"/>
-      <c r="AI38" s="238"/>
-      <c r="AJ38" s="239"/>
-      <c r="AK38" s="237"/>
-      <c r="AL38" s="238"/>
-      <c r="AM38" s="239"/>
-      <c r="AN38" s="237"/>
-      <c r="AO38" s="238"/>
-      <c r="AP38" s="238"/>
-      <c r="AQ38" s="238"/>
-      <c r="AR38" s="239"/>
-      <c r="AS38" s="237"/>
-      <c r="AT38" s="238"/>
-      <c r="AU38" s="238"/>
-      <c r="AV38" s="238"/>
-      <c r="AW38" s="238"/>
-      <c r="AX38" s="238"/>
-      <c r="AY38" s="238"/>
-      <c r="AZ38" s="238"/>
-      <c r="BA38" s="238"/>
-      <c r="BB38" s="238"/>
-      <c r="BC38" s="238"/>
-      <c r="BD38" s="250"/>
-      <c r="BE38" s="238"/>
-      <c r="BF38" s="239"/>
-      <c r="BG38" s="237"/>
-      <c r="BH38" s="250"/>
-      <c r="BI38" s="250"/>
-      <c r="BJ38" s="250"/>
-      <c r="BK38" s="250"/>
-      <c r="BL38" s="238"/>
-      <c r="BM38" s="238"/>
-      <c r="BN38" s="238"/>
-      <c r="BO38" s="238"/>
-      <c r="BP38" s="238"/>
-      <c r="BQ38" s="238"/>
-      <c r="BR38" s="238"/>
-      <c r="BS38" s="238"/>
-      <c r="BT38" s="238"/>
-      <c r="BU38" s="239"/>
-      <c r="BV38" s="237"/>
-      <c r="BW38" s="238"/>
-      <c r="BX38" s="238"/>
-      <c r="BY38" s="239"/>
-      <c r="BZ38" s="237"/>
-      <c r="CA38" s="238"/>
-      <c r="CB38" s="239"/>
-      <c r="CC38" s="237"/>
-      <c r="CD38" s="238"/>
-      <c r="CE38" s="238"/>
-      <c r="CF38" s="239"/>
-    </row>
-    <row r="39" customFormat="1" s="220">
-      <c r="A39" s="237"/>
-      <c r="Z39" s="251" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA39" s="239"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="426">
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="K4:R4"/>
@@ -9269,8 +9873,6 @@
     <mergeCell ref="BG27:BU27"/>
     <mergeCell ref="BV27:BY27"/>
     <mergeCell ref="BZ27:CB27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="T28:U28"/>
@@ -9279,12 +9881,6 @@
     <mergeCell ref="Z28:AA28"/>
     <mergeCell ref="AB28:AC28"/>
     <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:BF28"/>
-    <mergeCell ref="BG28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BZ28:CB28"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="T29:U29"/>
@@ -9357,14 +9953,6 @@
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AD38:AG38"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9375,7 +9963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J7" sqref="J7" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -9567,4 +10155,149 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A7">
+      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9"/>
+  <cols>
+    <col min="1" max="1" width="9" style="558"/>
+    <col min="2" max="2" width="13.25" customWidth="1" style="558"/>
+    <col min="3" max="3" width="9" style="558"/>
+    <col min="4" max="4" width="16.625" customWidth="1" style="558"/>
+    <col min="5" max="5" width="19" customWidth="1" style="558"/>
+    <col min="6" max="6" width="24.875" customWidth="1" style="558"/>
+    <col min="7" max="7" width="28.75" customWidth="1" style="558"/>
+    <col min="8" max="8" width="17.375" customWidth="1" style="558"/>
+    <col min="9" max="9" width="15.25" customWidth="1" style="558"/>
+    <col min="10" max="10" width="9" style="558"/>
+    <col min="11" max="11" width="9.5" customWidth="1" style="558"/>
+    <col min="12" max="12" width="10.625" customWidth="1" style="558"/>
+    <col min="13" max="16384" width="9" style="558"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="558">
+      <c r="A1" s="558" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="558" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="558">
+      <c r="A4" s="653" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="665" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="666" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="666" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="666" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="666" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="666" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="666" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="666" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="666" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="666" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="667" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" s="558">
+      <c r="B5" s="662" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="663">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="663">
+        <v>1</v>
+      </c>
+      <c r="E5" s="663">
+        <v>1</v>
+      </c>
+      <c r="F5" s="663">
+        <v>1</v>
+      </c>
+      <c r="G5" s="663">
+        <v>1</v>
+      </c>
+      <c r="H5" s="663">
+        <v>1</v>
+      </c>
+      <c r="I5" s="663">
+        <v>1</v>
+      </c>
+      <c r="J5" s="663">
+        <v>0</v>
+      </c>
+      <c r="K5" s="663">
+        <v>20210215</v>
+      </c>
+      <c r="L5" s="664">
+        <v>20230609</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" s="558">
+      <c r="B6" s="659" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="660">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="660">
+        <v>2.2</v>
+      </c>
+      <c r="E6" s="660">
+        <v>2.2</v>
+      </c>
+      <c r="F6" s="660">
+        <v>4.4</v>
+      </c>
+      <c r="G6" s="660">
+        <v>2.2</v>
+      </c>
+      <c r="H6" s="660">
+        <v>6.6</v>
+      </c>
+      <c r="I6" s="660">
+        <v>2.2</v>
+      </c>
+      <c r="J6" s="660">
+        <v>0</v>
+      </c>
+      <c r="K6" s="660">
+        <v>20230518</v>
+      </c>
+      <c r="L6" s="661">
+        <v>20230518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOC/単体テスト/EMSM_単体テスト仕様書-雇用保険機能.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書-雇用保険機能.xlsx
@@ -1321,6 +1321,228 @@
   <si>
     <t>E002</t>
   </si>
+  <si>
+    <t>①"一般拠出金料率(全額事業主)‰を入力してください"
+②"一般拠出金料率(全額事業主)‰に小数点2位までの数字のみを入力してください。
+"③"一般拠出金料率(全額事業主)‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
+  </si>
+  <si>
+    <t>①"労災保険料率(全額事業主)‰を入力してください"
+②"労災保険料率(全額事業主)‰に小数点2位までの数字のみを入力してください。"
+③"労災保険料率(全額事業主)‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
+  </si>
+  <si>
+    <t>①"雇用保険労働者負担料率‰を入力してください"
+②"雇用保険労働者負担料率‰に小数点2位までの数字のみを入力してください。"
+③"雇用保険労働者負担料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
+  </si>
+  <si>
+    <t>①"雇用保険料率‰を入力してください"
+②"雇用保険料率‰に小数点2位までの数字のみを入力してください。"
+③"雇用保険料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
+  </si>
+  <si>
+    <t>①"一般拠出金料率(全額事業主)‰を入力してください"
+②"一般拠出金料率(全額事業主)‰に小数点2位までの数字のみを入力してください。"
+③"一般拠出金料率(全額事業主)‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
+  </si>
+  <si>
+    <t>①"労働保険料率‰を入力してください"
+②"労働保険料率‰に小数点2位までの数字のみを入力してください。"
+③"労働保険料率‰に数字のみを入力してください。"　のエラーメッセージが出ます。</t>
+  </si>
+  <si>
+    <t>①年度を選択
+②検索ボダンを押す</t>
+  </si>
+  <si>
+    <t>①選択した年度リスト候補表示される</t>
+  </si>
+  <si>
+    <t>更新画面遷移</t>
+  </si>
+  <si>
+    <t>①更新ボダンをクリック</t>
+  </si>
+  <si>
+    <t>①年度を選択
+②検索ボダンをクリック</t>
+  </si>
+  <si>
+    <t>①選択した年度の</t>
+  </si>
+  <si>
+    <t>①選択した年度の雇用保険リストが表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面へ遷移
+</t>
+  </si>
+  <si>
+    <t>①年度セレクトボックを画面へ表示</t>
+  </si>
+  <si>
+    <t>①年度セレクトボックをクリック</t>
+  </si>
+  <si>
+    <t>①3年分が表示される</t>
+  </si>
+  <si>
+    <t>①更新の時対象年度が空白の場合
+②対象年度が数字じゃない場合
+③登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t>①更新の時対象年度が空白の場合
+②対象年度は数値ではない場合
+③登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①更新の時雇用保険労働者負担料率‰が空白の場合　
+②更新の時雇用保険労働者負担料率‰は小数点2位以上の場合　　　
+③更新の時雇用保険労働者負担料率‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①更新の時労災保険料率(全額事業主)‰が空白の場合　
+②更新の時労災保険料率(全額事業主)‰は小数点2位以上の場合　　　
+③更新の時労災保険料率(全額事業主)‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t>労災保険料率(全額事業主)‰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①更新の時雇用保険料率‰が空白の場合　
+②更新の時雇用保険料率‰は小数点2位以上の場合　　　
+③更新の時雇用保険料率‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①更新の時労働保険料率‰が空白の場合　
+②更新の時労働保険料率‰は小数点2位以上の場合　　　
+③更新の時労働保険料率‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①更新の時一般拠出金料率(全額事業主)‰が空白の場合　
+②更新の時一般拠出金料率(全額事業主)‰は小数点2位以上の場合　　　
+③更新の時一般拠出金料率(全額事業主)‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t>①新規追加ボダンをクリック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①“年度を入力してください。“
+②”対象年度に数値のみを入力してください“のエラーメッセージが出ます。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①新規の時雇用保険労働者負担料率‰が空白の場合　
+②新規の時雇用保険労働者負担料率‰は小数点2位以上の場合　　　
+③新規の時雇用保険労働者負担料率‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①新規の時雇用保険料率‰が空白の場合　
+②新規の時雇用保険料率‰は小数点2位以上の場合　　　
+③新規の時雇用保険料率‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①新規の時労災保険料率(全額事業主)‰が空白の場合　
+②新規の時労災保険料率(全額事業主)‰は小数点2位以上の場合　　　
+③新規の時労災保険料率(全額事業主)‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①新規の時労働保険料率‰が空白の場合　
+②新規の時労働保険料率‰は小数点2位以上の場合　　　
+③新規の時労働保険料率‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+①新規の時一般拠出金料率(全額事業主)‰が空白の場合　
+②新規の時一般拠出金料率(全額事業主)‰は小数点2位以上の場合　　　
+③新規の時一般拠出金料率(全額事業主)‰は数値ではない場合　　　　　　　
+④登録ボダン押すの場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB </t>
+  </si>
+  <si>
+    <t>DB 更新</t>
+  </si>
+  <si>
+    <t>EmplyinsrateInfoServiceのupdateEmplyinsrateInfo</t>
+  </si>
+  <si>
+    <t>①登録ボタンクリック</t>
+  </si>
+  <si>
+    <t>①DB へ更新したデータを登録する</t>
+  </si>
+  <si>
+    <t>DB 新規</t>
+  </si>
+  <si>
+    <t>EmplyinsrateInfoService のinsertEmplyinsrateInfo</t>
+  </si>
+  <si>
+    <t>①登録ボタンをクリック</t>
+  </si>
+  <si>
+    <t>①DB へ新規追加したデータを登録する</t>
+  </si>
+  <si>
+    <t>①更新したデータをDBへ登録する</t>
+  </si>
+  <si>
+    <t>①新規追加したデータをDB へ登録する</t>
+  </si>
+  <si>
+    <t>データ更新</t>
+  </si>
+  <si>
+    <t>データ更新画面</t>
+  </si>
+  <si>
+    <t>No.20DB 更新</t>
+  </si>
+  <si>
+    <t>新規追加画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.21 </t>
+  </si>
+  <si>
+    <t>DB へ更新</t>
+  </si>
+  <si>
+    <t>No.21 DB 新規</t>
+  </si>
+  <si>
+    <t>①画面が正常に表示できる
+②雇用保険リスト画面表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①新規画面へ遷移
+</t>
+  </si>
+  <si>
+    <t>①年度3年分が表示される</t>
+  </si>
 </sst>
 </file>
 
@@ -1329,7 +1551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,8 +1924,46 @@
       <name val="Meiryo UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF002060"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1726,8 +1986,13 @@
         <fgColor rgb="FFD7E4BC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="105">
+  <borders count="133">
     <border>
       <left/>
       <right/>
@@ -2525,6 +2790,201 @@
       <bottom style="thick"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2541,7 +3001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="668">
+  <cellXfs count="751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4546,6 +5006,307 @@
       <protection/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="59" applyFont="1" fillId="4" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="112" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="113" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="114" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="113" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="115" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="116" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="117" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="118" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="121" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="122" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="123" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="126" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="127" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="128" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="126" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="127" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="128" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="67" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="129" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="130" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="129" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="130" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="67" applyFont="1" fillId="5" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="5" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="5" applyFill="1" borderId="129" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="5" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="5" applyFill="1" borderId="130" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="5" applyFill="1" borderId="129" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="5" applyFill="1" borderId="130" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="131" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="5" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="5" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="5" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="112" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="4" applyFill="1" borderId="132" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="66" applyFont="1" fillId="5" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="63" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="center" horizontal="left"/>
       <protection/>
     </xf>
@@ -4675,6 +5436,181 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10391775" cy="2028825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="857250"/>
+          <a:ext cx="10391775" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3971925" cy="3848100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="3609975"/>
+          <a:ext cx="3971925" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10477500" cy="2295525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="8382000"/>
+          <a:ext cx="10477500" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10353675" cy="2266950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="16011525"/>
+          <a:ext cx="10353675" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4686300" cy="4171950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="11277600"/>
+          <a:ext cx="4686300" cy="4171950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5702,9 +6638,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF23"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="88" zoomScaleNormal="80" workbookViewId="0" tabSelected="1">
-      <pane activePane="bottomLeft" ySplit="2" topLeftCell="A36" state="frozen"/>
-      <selection activeCell="AN14" sqref="AN14:AR14" activeCellId="0" pane="bottomLeft"/>
+    <sheetView showGridLines="false" topLeftCell="A25" zoomScale="88" zoomScaleNormal="80" workbookViewId="0" tabSelected="1">
+      <selection activeCell="CP12" sqref="CP12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6470,7 +7405,7 @@
       <c r="BE9" s="279"/>
       <c r="BF9" s="280"/>
       <c r="BG9" s="197" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="BH9" s="198"/>
       <c r="BI9" s="198"/>
@@ -6562,7 +7497,7 @@
       <c r="AQ10" s="434"/>
       <c r="AR10" s="435"/>
       <c r="AS10" s="279" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AT10" s="279"/>
       <c r="AU10" s="279"/>
@@ -6578,7 +7513,7 @@
       <c r="BE10" s="279"/>
       <c r="BF10" s="280"/>
       <c r="BG10" s="433" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="BH10" s="434"/>
       <c r="BI10" s="434"/>
@@ -6670,7 +7605,7 @@
       <c r="AQ11" s="279"/>
       <c r="AR11" s="280"/>
       <c r="AS11" s="279" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="AT11" s="264"/>
       <c r="AU11" s="264"/>
@@ -6685,23 +7620,23 @@
       <c r="BD11" s="264"/>
       <c r="BE11" s="264"/>
       <c r="BF11" s="265"/>
-      <c r="BG11" s="264" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH11" s="264"/>
-      <c r="BI11" s="264"/>
-      <c r="BJ11" s="264"/>
-      <c r="BK11" s="264"/>
-      <c r="BL11" s="264"/>
-      <c r="BM11" s="264"/>
-      <c r="BN11" s="264"/>
-      <c r="BO11" s="264"/>
-      <c r="BP11" s="264"/>
-      <c r="BQ11" s="264"/>
-      <c r="BR11" s="264"/>
-      <c r="BS11" s="264"/>
-      <c r="BT11" s="264"/>
-      <c r="BU11" s="265"/>
+      <c r="BG11" s="279" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH11" s="279"/>
+      <c r="BI11" s="279"/>
+      <c r="BJ11" s="279"/>
+      <c r="BK11" s="279"/>
+      <c r="BL11" s="279"/>
+      <c r="BM11" s="279"/>
+      <c r="BN11" s="279"/>
+      <c r="BO11" s="279"/>
+      <c r="BP11" s="279"/>
+      <c r="BQ11" s="279"/>
+      <c r="BR11" s="279"/>
+      <c r="BS11" s="279"/>
+      <c r="BT11" s="279"/>
+      <c r="BU11" s="280"/>
       <c r="BV11" s="506" t="s">
         <v>78</v>
       </c>
@@ -6730,6 +7665,7 @@
       <c r="CQ11" s="220"/>
       <c r="CR11" s="220"/>
       <c r="CS11" s="220"/>
+      <c r="CT11" s="668"/>
     </row>
     <row r="12" customHeight="1" ht="87" customFormat="1" s="220">
       <c r="A12" s="264">
@@ -6737,7 +7673,7 @@
       </c>
       <c r="B12" s="265"/>
       <c r="C12" s="264" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D12" s="264"/>
       <c r="E12" s="264"/>
@@ -6793,7 +7729,7 @@
       <c r="AQ12" s="279"/>
       <c r="AR12" s="280"/>
       <c r="AS12" s="279" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="AT12" s="279"/>
       <c r="AU12" s="279"/>
@@ -6809,7 +7745,7 @@
       <c r="BE12" s="279"/>
       <c r="BF12" s="280"/>
       <c r="BG12" s="264" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="BH12" s="264"/>
       <c r="BI12" s="264"/>
@@ -6901,7 +7837,7 @@
       <c r="AQ13" s="279"/>
       <c r="AR13" s="280"/>
       <c r="AS13" s="279" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="AT13" s="279"/>
       <c r="AU13" s="279"/>
@@ -6917,7 +7853,7 @@
       <c r="BE13" s="279"/>
       <c r="BF13" s="280"/>
       <c r="BG13" s="494" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="BH13" s="494"/>
       <c r="BI13" s="494"/>
@@ -7022,7 +7958,7 @@
       <c r="AQ14" s="279"/>
       <c r="AR14" s="280"/>
       <c r="AS14" s="279" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="AT14" s="279"/>
       <c r="AU14" s="279"/>
@@ -7038,7 +7974,7 @@
       <c r="BE14" s="279"/>
       <c r="BF14" s="394"/>
       <c r="BG14" s="501" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="BH14" s="501"/>
       <c r="BI14" s="501"/>
@@ -7143,7 +8079,7 @@
       <c r="AQ15" s="279"/>
       <c r="AR15" s="280"/>
       <c r="AS15" s="279" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="AT15" s="279"/>
       <c r="AU15" s="279"/>
@@ -7159,7 +8095,7 @@
       <c r="BE15" s="279"/>
       <c r="BF15" s="394"/>
       <c r="BG15" s="501" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="BH15" s="501"/>
       <c r="BI15" s="501"/>
@@ -7264,7 +8200,7 @@
       <c r="AQ16" s="279"/>
       <c r="AR16" s="280"/>
       <c r="AS16" s="279" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="AT16" s="279"/>
       <c r="AU16" s="279"/>
@@ -7280,7 +8216,7 @@
       <c r="BE16" s="279"/>
       <c r="BF16" s="394"/>
       <c r="BG16" s="501" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="BH16" s="501"/>
       <c r="BI16" s="501"/>
@@ -7385,7 +8321,7 @@
       <c r="AQ17" s="279"/>
       <c r="AR17" s="280"/>
       <c r="AS17" s="279" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="AT17" s="279"/>
       <c r="AU17" s="279"/>
@@ -7401,7 +8337,7 @@
       <c r="BE17" s="279"/>
       <c r="BF17" s="394"/>
       <c r="BG17" s="501" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="BH17" s="501"/>
       <c r="BI17" s="501"/>
@@ -7493,11 +8429,11 @@
       <c r="AH18" s="237"/>
       <c r="AI18" s="238"/>
       <c r="AJ18" s="511"/>
-      <c r="AK18" s="515" t="s">
+      <c r="AK18" s="689" t="s">
         <v>41</v>
       </c>
-      <c r="AL18" s="516"/>
-      <c r="AM18" s="517"/>
+      <c r="AL18" s="690"/>
+      <c r="AM18" s="691"/>
       <c r="AN18" s="471" t="s">
         <v>152</v>
       </c>
@@ -7506,7 +8442,7 @@
       <c r="AQ18" s="279"/>
       <c r="AR18" s="280"/>
       <c r="AS18" s="279" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="AT18" s="279"/>
       <c r="AU18" s="279"/>
@@ -7522,7 +8458,7 @@
       <c r="BE18" s="279"/>
       <c r="BF18" s="394"/>
       <c r="BG18" s="501" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="BH18" s="501"/>
       <c r="BI18" s="501"/>
@@ -7613,13 +8549,13 @@
       <c r="AG19" s="239"/>
       <c r="AH19" s="237"/>
       <c r="AI19" s="238"/>
-      <c r="AJ19" s="511"/>
-      <c r="AK19" s="515" t="s">
+      <c r="AJ19" s="687"/>
+      <c r="AK19" s="748" t="s">
         <v>41</v>
       </c>
-      <c r="AL19" s="516"/>
-      <c r="AM19" s="517"/>
-      <c r="AN19" s="471" t="s">
+      <c r="AL19" s="749"/>
+      <c r="AM19" s="750"/>
+      <c r="AN19" s="747" t="s">
         <v>94</v>
       </c>
       <c r="AO19" s="279"/>
@@ -7627,7 +8563,7 @@
       <c r="AQ19" s="279"/>
       <c r="AR19" s="280"/>
       <c r="AS19" s="279" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="AT19" s="279"/>
       <c r="AU19" s="279"/>
@@ -7643,7 +8579,7 @@
       <c r="BE19" s="279"/>
       <c r="BF19" s="394"/>
       <c r="BG19" s="501" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="BH19" s="501"/>
       <c r="BI19" s="501"/>
@@ -7737,11 +8673,11 @@
       <c r="AH20" s="237"/>
       <c r="AI20" s="238"/>
       <c r="AJ20" s="511"/>
-      <c r="AK20" s="515" t="s">
+      <c r="AK20" s="692" t="s">
         <v>40</v>
       </c>
-      <c r="AL20" s="516"/>
-      <c r="AM20" s="517"/>
+      <c r="AL20" s="693"/>
+      <c r="AM20" s="694"/>
       <c r="AN20" s="471" t="s">
         <v>94</v>
       </c>
@@ -7750,7 +8686,7 @@
       <c r="AQ20" s="279"/>
       <c r="AR20" s="280"/>
       <c r="AS20" s="279" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="AT20" s="279"/>
       <c r="AU20" s="279"/>
@@ -7766,7 +8702,7 @@
       <c r="BE20" s="279"/>
       <c r="BF20" s="394"/>
       <c r="BG20" s="501" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="BH20" s="501"/>
       <c r="BI20" s="501"/>
@@ -7871,7 +8807,7 @@
       <c r="AQ21" s="279"/>
       <c r="AR21" s="280"/>
       <c r="AS21" s="279" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="AT21" s="279"/>
       <c r="AU21" s="279"/>
@@ -7887,7 +8823,7 @@
       <c r="BE21" s="279"/>
       <c r="BF21" s="280"/>
       <c r="BG21" s="494" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="BH21" s="494"/>
       <c r="BI21" s="494"/>
@@ -7992,7 +8928,7 @@
       <c r="AQ22" s="279"/>
       <c r="AR22" s="280"/>
       <c r="AS22" s="279" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="AT22" s="279"/>
       <c r="AU22" s="279"/>
@@ -8113,7 +9049,7 @@
       <c r="AQ23" s="279"/>
       <c r="AR23" s="280"/>
       <c r="AS23" s="279" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="AT23" s="279"/>
       <c r="AU23" s="279"/>
@@ -8129,7 +9065,7 @@
       <c r="BE23" s="279"/>
       <c r="BF23" s="394"/>
       <c r="BG23" s="501" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="BH23" s="501"/>
       <c r="BI23" s="501"/>
@@ -8234,7 +9170,7 @@
       <c r="AQ24" s="279"/>
       <c r="AR24" s="280"/>
       <c r="AS24" s="279" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="AT24" s="279"/>
       <c r="AU24" s="279"/>
@@ -8250,7 +9186,7 @@
       <c r="BE24" s="279"/>
       <c r="BF24" s="394"/>
       <c r="BG24" s="501" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="BH24" s="501"/>
       <c r="BI24" s="501"/>
@@ -8355,7 +9291,7 @@
       <c r="AQ25" s="279"/>
       <c r="AR25" s="280"/>
       <c r="AS25" s="279" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="AT25" s="279"/>
       <c r="AU25" s="279"/>
@@ -8371,7 +9307,7 @@
       <c r="BE25" s="279"/>
       <c r="BF25" s="394"/>
       <c r="BG25" s="501" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="BH25" s="501"/>
       <c r="BI25" s="501"/>
@@ -8476,7 +9412,7 @@
       <c r="AQ26" s="279"/>
       <c r="AR26" s="280"/>
       <c r="AS26" s="279" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="AT26" s="279"/>
       <c r="AU26" s="279"/>
@@ -8492,7 +9428,7 @@
       <c r="BE26" s="279"/>
       <c r="BF26" s="394"/>
       <c r="BG26" s="501" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="BH26" s="501"/>
       <c r="BI26" s="501"/>
@@ -8597,7 +9533,7 @@
       <c r="AQ27" s="279"/>
       <c r="AR27" s="280"/>
       <c r="AS27" s="279" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="AT27" s="279"/>
       <c r="AU27" s="279"/>
@@ -8613,7 +9549,7 @@
       <c r="BE27" s="279"/>
       <c r="BF27" s="394"/>
       <c r="BG27" s="501" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="BH27" s="501"/>
       <c r="BI27" s="501"/>
@@ -8658,113 +9594,154 @@
       <c r="CR27" s="220"/>
       <c r="CS27" s="220"/>
     </row>
-    <row r="28" customFormat="1" s="220">
-      <c r="A28" s="237"/>
-      <c r="B28" s="239"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="238"/>
-      <c r="G28" s="238"/>
-      <c r="H28" s="238"/>
-      <c r="I28" s="238"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="239"/>
-      <c r="P28" s="237"/>
+    <row r="28" customFormat="1" s="704">
+      <c r="A28" s="257">
+        <v>20</v>
+      </c>
+      <c r="B28" s="265"/>
+      <c r="C28" s="279" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="279"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
+      <c r="H28" s="279"/>
+      <c r="I28" s="279"/>
+      <c r="J28" s="279"/>
+      <c r="K28" s="279"/>
+      <c r="L28" s="279"/>
+      <c r="M28" s="279"/>
+      <c r="N28" s="279"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="237" t="s">
+        <v>69</v>
+      </c>
       <c r="Q28" s="239"/>
       <c r="R28" s="237"/>
       <c r="S28" s="239"/>
-      <c r="T28" s="237"/>
-      <c r="U28" s="239"/>
+      <c r="T28" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" s="258"/>
       <c r="V28" s="237"/>
       <c r="W28" s="239"/>
       <c r="X28" s="237"/>
       <c r="Y28" s="239"/>
       <c r="Z28" s="237"/>
       <c r="AA28" s="239"/>
-      <c r="AB28" s="237"/>
-      <c r="AC28" s="239"/>
+      <c r="AB28" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC28" s="258"/>
       <c r="AD28" s="237"/>
       <c r="AE28" s="238"/>
       <c r="AF28" s="238"/>
       <c r="AG28" s="239"/>
       <c r="AH28" s="237"/>
       <c r="AI28" s="238"/>
-      <c r="AJ28" s="239"/>
-      <c r="AK28" s="522"/>
-      <c r="AL28" s="524"/>
-      <c r="AM28" s="525"/>
-      <c r="AN28" s="237"/>
-      <c r="AO28" s="238"/>
-      <c r="AP28" s="238"/>
-      <c r="AQ28" s="238"/>
-      <c r="AR28" s="239"/>
-      <c r="AS28" s="237"/>
-      <c r="AT28" s="238"/>
-      <c r="AU28" s="238"/>
-      <c r="AV28" s="238"/>
-      <c r="AW28" s="238"/>
-      <c r="AX28" s="238"/>
-      <c r="AY28" s="238"/>
-      <c r="AZ28" s="238"/>
-      <c r="BA28" s="238"/>
-      <c r="BB28" s="238"/>
-      <c r="BC28" s="238"/>
-      <c r="BD28" s="250"/>
-      <c r="BE28" s="238"/>
-      <c r="BF28" s="239"/>
-      <c r="BG28" s="522"/>
-      <c r="BH28" s="523"/>
-      <c r="BI28" s="523"/>
-      <c r="BJ28" s="523"/>
-      <c r="BK28" s="523"/>
-      <c r="BL28" s="524"/>
-      <c r="BM28" s="524"/>
-      <c r="BN28" s="524"/>
-      <c r="BO28" s="524"/>
-      <c r="BP28" s="524"/>
-      <c r="BQ28" s="524"/>
-      <c r="BR28" s="524"/>
-      <c r="BS28" s="524"/>
-      <c r="BT28" s="524"/>
-      <c r="BU28" s="525"/>
-      <c r="BV28" s="237"/>
-      <c r="BW28" s="238"/>
-      <c r="BX28" s="238"/>
-      <c r="BY28" s="239"/>
-      <c r="BZ28" s="237"/>
-      <c r="CA28" s="238"/>
-      <c r="CB28" s="239"/>
+      <c r="AJ28" s="511"/>
+      <c r="AK28" s="515" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL28" s="516"/>
+      <c r="AM28" s="517"/>
+      <c r="AN28" s="705" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO28" s="705"/>
+      <c r="AP28" s="705"/>
+      <c r="AQ28" s="705"/>
+      <c r="AR28" s="706"/>
+      <c r="AS28" s="279" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT28" s="279"/>
+      <c r="AU28" s="279"/>
+      <c r="AV28" s="279"/>
+      <c r="AW28" s="279"/>
+      <c r="AX28" s="279"/>
+      <c r="AY28" s="279"/>
+      <c r="AZ28" s="279"/>
+      <c r="BA28" s="279"/>
+      <c r="BB28" s="279"/>
+      <c r="BC28" s="279"/>
+      <c r="BD28" s="279"/>
+      <c r="BE28" s="279"/>
+      <c r="BF28" s="394"/>
+      <c r="BG28" s="501" t="s">
+        <v>216</v>
+      </c>
+      <c r="BH28" s="501"/>
+      <c r="BI28" s="501"/>
+      <c r="BJ28" s="501"/>
+      <c r="BK28" s="501"/>
+      <c r="BL28" s="501"/>
+      <c r="BM28" s="501"/>
+      <c r="BN28" s="501"/>
+      <c r="BO28" s="501"/>
+      <c r="BP28" s="501"/>
+      <c r="BQ28" s="501"/>
+      <c r="BR28" s="501"/>
+      <c r="BS28" s="501"/>
+      <c r="BT28" s="501"/>
+      <c r="BU28" s="502"/>
+      <c r="BV28" s="511" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW28" s="511"/>
+      <c r="BX28" s="511"/>
+      <c r="BY28" s="675"/>
+      <c r="BZ28" s="252" t="s">
+        <v>69</v>
+      </c>
       <c r="CC28" s="237"/>
       <c r="CD28" s="238"/>
       <c r="CE28" s="238"/>
       <c r="CF28" s="239"/>
+      <c r="CG28" s="220"/>
+      <c r="CH28" s="220"/>
+      <c r="CI28" s="220"/>
+      <c r="CJ28" s="220"/>
+      <c r="CK28" s="220"/>
+      <c r="CL28" s="220"/>
+      <c r="CM28" s="220"/>
+      <c r="CN28" s="220"/>
+      <c r="CO28" s="220"/>
+      <c r="CP28" s="220"/>
+      <c r="CQ28" s="220"/>
+      <c r="CR28" s="220"/>
+      <c r="CS28" s="220"/>
     </row>
     <row r="29" customFormat="1" s="220">
-      <c r="A29" s="237"/>
-      <c r="B29" s="239"/>
-      <c r="C29" s="237"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="238"/>
-      <c r="I29" s="238"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="238"/>
-      <c r="N29" s="238"/>
-      <c r="O29" s="239"/>
-      <c r="P29" s="237"/>
+      <c r="A29" s="669">
+        <v>21</v>
+      </c>
+      <c r="B29" s="265"/>
+      <c r="C29" s="700" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="264"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="264"/>
+      <c r="G29" s="264"/>
+      <c r="H29" s="264"/>
+      <c r="I29" s="264"/>
+      <c r="J29" s="264"/>
+      <c r="K29" s="264"/>
+      <c r="L29" s="264"/>
+      <c r="M29" s="264"/>
+      <c r="N29" s="264"/>
+      <c r="O29" s="265"/>
+      <c r="P29" s="237" t="s">
+        <v>69</v>
+      </c>
       <c r="Q29" s="239"/>
       <c r="R29" s="237"/>
       <c r="S29" s="239"/>
-      <c r="T29" s="237"/>
+      <c r="T29" s="237" t="s">
+        <v>69</v>
+      </c>
       <c r="U29" s="239"/>
       <c r="V29" s="237"/>
       <c r="W29" s="239"/>
@@ -8772,7 +9749,9 @@
       <c r="Y29" s="239"/>
       <c r="Z29" s="237"/>
       <c r="AA29" s="239"/>
-      <c r="AB29" s="237"/>
+      <c r="AB29" s="237" t="s">
+        <v>69</v>
+      </c>
       <c r="AC29" s="239"/>
       <c r="AD29" s="237"/>
       <c r="AE29" s="238"/>
@@ -8781,54 +9760,66 @@
       <c r="AH29" s="237"/>
       <c r="AI29" s="238"/>
       <c r="AJ29" s="239"/>
-      <c r="AK29" s="237"/>
-      <c r="AL29" s="238"/>
-      <c r="AM29" s="239"/>
-      <c r="AN29" s="237"/>
-      <c r="AO29" s="238"/>
-      <c r="AP29" s="238"/>
-      <c r="AQ29" s="238"/>
-      <c r="AR29" s="239"/>
-      <c r="AS29" s="237"/>
-      <c r="AT29" s="238"/>
-      <c r="AU29" s="238"/>
-      <c r="AV29" s="238"/>
-      <c r="AW29" s="238"/>
-      <c r="AX29" s="238"/>
-      <c r="AY29" s="238"/>
-      <c r="AZ29" s="238"/>
-      <c r="BA29" s="238"/>
-      <c r="BB29" s="238"/>
-      <c r="BC29" s="238"/>
-      <c r="BD29" s="250"/>
-      <c r="BE29" s="238"/>
-      <c r="BF29" s="239"/>
-      <c r="BG29" s="237"/>
-      <c r="BH29" s="250"/>
-      <c r="BI29" s="250"/>
-      <c r="BJ29" s="250"/>
-      <c r="BK29" s="250"/>
-      <c r="BL29" s="238"/>
-      <c r="BM29" s="238"/>
-      <c r="BN29" s="238"/>
-      <c r="BO29" s="238"/>
-      <c r="BP29" s="238"/>
-      <c r="BQ29" s="238"/>
-      <c r="BR29" s="238"/>
-      <c r="BS29" s="238"/>
-      <c r="BT29" s="238"/>
-      <c r="BU29" s="239"/>
-      <c r="BV29" s="237"/>
-      <c r="BW29" s="238"/>
-      <c r="BX29" s="238"/>
-      <c r="BY29" s="239"/>
-      <c r="BZ29" s="237"/>
-      <c r="CA29" s="238"/>
-      <c r="CB29" s="239"/>
-      <c r="CC29" s="237"/>
-      <c r="CD29" s="238"/>
-      <c r="CE29" s="238"/>
-      <c r="CF29" s="239"/>
+      <c r="AK29" s="703" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL29" s="522"/>
+      <c r="AM29" s="702"/>
+      <c r="AN29" s="700" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO29" s="264"/>
+      <c r="AP29" s="264"/>
+      <c r="AQ29" s="264"/>
+      <c r="AR29" s="265"/>
+      <c r="AS29" s="700" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT29" s="264"/>
+      <c r="AU29" s="264"/>
+      <c r="AV29" s="264"/>
+      <c r="AW29" s="264"/>
+      <c r="AX29" s="264"/>
+      <c r="AY29" s="264"/>
+      <c r="AZ29" s="264"/>
+      <c r="BA29" s="264"/>
+      <c r="BB29" s="264"/>
+      <c r="BC29" s="264"/>
+      <c r="BD29" s="264"/>
+      <c r="BE29" s="264"/>
+      <c r="BF29" s="265"/>
+      <c r="BG29" s="703" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH29" s="522"/>
+      <c r="BI29" s="522"/>
+      <c r="BJ29" s="522"/>
+      <c r="BK29" s="522"/>
+      <c r="BL29" s="522"/>
+      <c r="BM29" s="522"/>
+      <c r="BN29" s="522"/>
+      <c r="BO29" s="522"/>
+      <c r="BP29" s="522"/>
+      <c r="BQ29" s="522"/>
+      <c r="BR29" s="522"/>
+      <c r="BS29" s="522"/>
+      <c r="BT29" s="522"/>
+      <c r="BU29" s="702"/>
+      <c r="BV29" s="700" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW29" s="264"/>
+      <c r="BX29" s="264"/>
+      <c r="BY29" s="265"/>
+      <c r="BZ29" s="700" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA29" s="264"/>
+      <c r="CB29" s="265"/>
+      <c r="CC29" s="669"/>
+      <c r="CD29" s="264"/>
+      <c r="CE29" s="264"/>
+      <c r="CF29" s="265"/>
     </row>
     <row r="30" customFormat="1" s="220">
       <c r="A30" s="237"/>
@@ -9520,13 +10511,99 @@
     </row>
     <row r="38" customFormat="1" s="220">
       <c r="A38" s="237"/>
-      <c r="Z38" s="251" t="s">
+      <c r="B38" s="239"/>
+      <c r="C38" s="237"/>
+      <c r="D38" s="250"/>
+      <c r="E38" s="238"/>
+      <c r="F38" s="238"/>
+      <c r="G38" s="238"/>
+      <c r="H38" s="238"/>
+      <c r="I38" s="238"/>
+      <c r="J38" s="238"/>
+      <c r="K38" s="238"/>
+      <c r="L38" s="238"/>
+      <c r="M38" s="238"/>
+      <c r="N38" s="238"/>
+      <c r="O38" s="239"/>
+      <c r="P38" s="237"/>
+      <c r="Q38" s="239"/>
+      <c r="R38" s="237"/>
+      <c r="S38" s="239"/>
+      <c r="T38" s="237"/>
+      <c r="U38" s="239"/>
+      <c r="V38" s="237"/>
+      <c r="W38" s="239"/>
+      <c r="X38" s="237"/>
+      <c r="Y38" s="239"/>
+      <c r="Z38" s="237"/>
+      <c r="AA38" s="239"/>
+      <c r="AB38" s="237"/>
+      <c r="AC38" s="239"/>
+      <c r="AD38" s="237"/>
+      <c r="AE38" s="238"/>
+      <c r="AF38" s="238"/>
+      <c r="AG38" s="239"/>
+      <c r="AH38" s="237"/>
+      <c r="AI38" s="238"/>
+      <c r="AJ38" s="239"/>
+      <c r="AK38" s="237"/>
+      <c r="AL38" s="238"/>
+      <c r="AM38" s="239"/>
+      <c r="AN38" s="237"/>
+      <c r="AO38" s="238"/>
+      <c r="AP38" s="238"/>
+      <c r="AQ38" s="238"/>
+      <c r="AR38" s="239"/>
+      <c r="AS38" s="237"/>
+      <c r="AT38" s="238"/>
+      <c r="AU38" s="238"/>
+      <c r="AV38" s="238"/>
+      <c r="AW38" s="238"/>
+      <c r="AX38" s="238"/>
+      <c r="AY38" s="238"/>
+      <c r="AZ38" s="238"/>
+      <c r="BA38" s="238"/>
+      <c r="BB38" s="238"/>
+      <c r="BC38" s="238"/>
+      <c r="BD38" s="250"/>
+      <c r="BE38" s="238"/>
+      <c r="BF38" s="239"/>
+      <c r="BG38" s="237"/>
+      <c r="BH38" s="250"/>
+      <c r="BI38" s="250"/>
+      <c r="BJ38" s="250"/>
+      <c r="BK38" s="250"/>
+      <c r="BL38" s="238"/>
+      <c r="BM38" s="238"/>
+      <c r="BN38" s="238"/>
+      <c r="BO38" s="238"/>
+      <c r="BP38" s="238"/>
+      <c r="BQ38" s="238"/>
+      <c r="BR38" s="238"/>
+      <c r="BS38" s="238"/>
+      <c r="BT38" s="238"/>
+      <c r="BU38" s="239"/>
+      <c r="BV38" s="237"/>
+      <c r="BW38" s="238"/>
+      <c r="BX38" s="238"/>
+      <c r="BY38" s="239"/>
+      <c r="BZ38" s="237"/>
+      <c r="CA38" s="238"/>
+      <c r="CB38" s="239"/>
+      <c r="CC38" s="237"/>
+      <c r="CD38" s="238"/>
+      <c r="CE38" s="238"/>
+      <c r="CF38" s="239"/>
+    </row>
+    <row r="39" customFormat="1" s="220">
+      <c r="A39" s="237"/>
+      <c r="Z39" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="AA38" s="239"/>
+      <c r="AA39" s="239"/>
     </row>
   </sheetData>
-  <mergeCells count="426">
+  <mergeCells count="444">
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="K4:R4"/>
@@ -9873,14 +10950,17 @@
     <mergeCell ref="BG27:BU27"/>
     <mergeCell ref="BV27:BY27"/>
     <mergeCell ref="BZ27:CB27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:O28"/>
     <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
     <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:BF28"/>
+    <mergeCell ref="BG28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:O29"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="T29:U29"/>
@@ -9889,6 +10969,13 @@
     <mergeCell ref="Z29:AA29"/>
     <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:BF29"/>
+    <mergeCell ref="BG29:BU29"/>
+    <mergeCell ref="BV29:BY29"/>
+    <mergeCell ref="BZ29:CB29"/>
+    <mergeCell ref="CC29:CF29"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="T30:U30"/>
@@ -9953,6 +11040,14 @@
     <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AB37:AC37"/>
     <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9963,7 +11058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J7" sqref="J7" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -10160,8 +11255,8 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView workbookViewId="0" topLeftCell="A28">
+      <selection activeCell="G103" activeCellId="0" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9"/>
@@ -10189,115 +11284,28 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" customFormat="1" s="558">
-      <c r="A4" s="653" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="665" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="666" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="666" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="666" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="666" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="666" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="666" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="666" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" s="666" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="666" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" s="667" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" s="558">
-      <c r="B5" s="662" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="663">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="663">
-        <v>1</v>
-      </c>
-      <c r="E5" s="663">
-        <v>1</v>
-      </c>
-      <c r="F5" s="663">
-        <v>1</v>
-      </c>
-      <c r="G5" s="663">
-        <v>1</v>
-      </c>
-      <c r="H5" s="663">
-        <v>1</v>
-      </c>
-      <c r="I5" s="663">
-        <v>1</v>
-      </c>
-      <c r="J5" s="663">
-        <v>0</v>
-      </c>
-      <c r="K5" s="663">
-        <v>20210215</v>
-      </c>
-      <c r="L5" s="664">
-        <v>20230609</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" s="558">
-      <c r="B6" s="659" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="660">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="660">
-        <v>2.2</v>
-      </c>
-      <c r="E6" s="660">
-        <v>2.2</v>
-      </c>
-      <c r="F6" s="660">
-        <v>4.4</v>
-      </c>
-      <c r="G6" s="660">
-        <v>2.2</v>
-      </c>
-      <c r="H6" s="660">
-        <v>6.6</v>
-      </c>
-      <c r="I6" s="660">
-        <v>2.2</v>
-      </c>
-      <c r="J6" s="660">
-        <v>0</v>
-      </c>
-      <c r="K6" s="660">
-        <v>20230518</v>
-      </c>
-      <c r="L6" s="661">
-        <v>20230518</v>
+    <row r="18">
+      <c r="C18" s="558" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="558" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="558" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" s="558" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>